--- a/Python/Results Array.xlsx
+++ b/Python/Results Array.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\Papers\5 in progress\Lottery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Lottery\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9DC97-9A2B-47C4-A4E9-7F6408B56F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C4154-3E47-42F0-9AE3-BADABB7D08B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="720" windowWidth="23385" windowHeight="19140" xr2:uid="{B3EB2355-D439-41FF-A0B0-1141EA110A80}"/>
+    <workbookView xWindow="3525" yWindow="690" windowWidth="19440" windowHeight="19140" activeTab="4" xr2:uid="{B3EB2355-D439-41FF-A0B0-1141EA110A80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PDFs" sheetId="4" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="54">
   <si>
     <t>list</t>
   </si>
@@ -181,13 +184,25 @@
     <t>High Inc</t>
   </si>
   <si>
-    <t>ratio</t>
-  </si>
-  <si>
     <t>gamma that sets delta u = 0</t>
   </si>
   <si>
     <t>odds that set delta u = 0</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>payoff =226,000,000</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
+    <t>ratio1</t>
+  </si>
+  <si>
+    <t>ratio2</t>
   </si>
 </sst>
 </file>
@@ -198,7 +213,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -341,7 +356,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -364,9 +379,8 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,16 +391,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,12 +404,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -417,9 +421,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -437,6 +448,2886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>beta distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PDFs!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75900</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>79800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101900</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>103200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>107100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>108400</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>109700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>112300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>113600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>114900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>116200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>117500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>118800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>120100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>121400</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>122700</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>124000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>125300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>126600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>127900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>129200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>130500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>131800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>133100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>135700</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>137000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>138300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>139600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>140900</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>142200</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>144800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>146100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>147400</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>148700</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>150000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PDFs!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.2316900000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1762400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3051899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3875799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4241200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4155399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3625599999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2658899999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1262499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.94438E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7209700000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.04568E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1152499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.18088E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.24265E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.30063E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3548899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4055E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.45253E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4960599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.53615E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5728900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6063399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.63657E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6636499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6876700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7086799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.72677E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7420000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7544400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7641799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7712700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.77579E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7778200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.77743E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.77468E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.76965E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.76241E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7530400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7416000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7281700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.71282E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6956300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.67665E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.65597E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.63366E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6097899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5844299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5576599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5295400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5001499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.46956E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.43784E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.40506E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3713100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3366299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3011200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2648400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.22787E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.19027E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1521200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.11348E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0744399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0350699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.9542799999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.5559600000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.1564400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.7564400000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.35668E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9578800000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.5607599999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1660400000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.7744399999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.3866799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.0034800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.6255599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.2536500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.8884499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5306900000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.1811000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.84038E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.5092700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.18848E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8787299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5807400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2952300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0229200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.76454E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5207899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2924099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.08011E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.8460800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.0663099999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4689500000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0612100000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.85028E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8433800000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0477E-4</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00E+00">
+                  <c:v>4.70447E-5</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.00E+00">
+                  <c:v>1.1881200000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAE3-4F84-908A-494C4FA2F5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>normal distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PDFs!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75900</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>79800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101900</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>103200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>107100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>108400</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>109700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>112300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>113600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>114900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>116200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>117500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>118800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>120100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>121400</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>122700</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>124000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>125300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>126600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>127900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>129200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>130500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>131800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>133100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>135700</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>137000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>138300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>139600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>140900</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>142200</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>144800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>146100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>147400</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>148700</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>150000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PDFs!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.05857E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08529E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1117E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1377099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.16329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.18838E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.21291E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.23684E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2600999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2826499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.30443E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.32538E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3454499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.36461E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3827900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.39995E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4160499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.43105E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4449E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.45758E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4690399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4792599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.48822E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.49588E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5022300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.50724E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.51092E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5132400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5141999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5138E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.51203E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5089099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5044500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.49864E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.49152E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4830899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4733899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.46243E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.45024E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.43687E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4223400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.40669E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.38995E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.37219E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3534300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.33372E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3131200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2916800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.26944E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.24647E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.22281E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.19851E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.17365E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1482600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.12242E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.09617E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0695700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.04268E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.01554E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.8822900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.6078299999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.3325999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0570900000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7818099999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.5072399999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.2338299999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.96205E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.6923099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4250200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.1605699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.8993300000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.6416399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3878299999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.13818E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.8929899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.6525000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.4169500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.1865399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.9614699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7418900000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5279600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.3197899999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.1174799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.9211100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.7307500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5464400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.3682E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1960399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.0299599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8699200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7158799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5678099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.4256199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2892400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1585900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0335599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.91406E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.79995E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6911300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.58745E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.48879E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAE3-4F84-908A-494C4FA2F5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>uniform distribution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PDFs!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75900</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>79800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101900</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>103200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>107100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>108400</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>109700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>112300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>113600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>114900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>116200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>117500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>118800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>120100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>121400</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>122700</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>124000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>125300</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>126600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>127900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>129200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>130500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>131800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>133100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>135700</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>137000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>138300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>139600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>140900</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>142200</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>144800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>146100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>147400</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>148700</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>150000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PDFs!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9009900000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAE3-4F84-908A-494C4FA2F5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1936537071"/>
+        <c:axId val="1936538511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1936537071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Non-Lottery</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> Income</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936538511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1936538511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936537071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A6BCAC31-CF9F-4CDB-A1CC-F9C19E6D05A4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669130" cy="6294783"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB38E21A-5A38-3D41-7421-8E5E3DD5AE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,61 +3626,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FA21F9-1524-4939-A076-9F03C746FDA3}">
-  <dimension ref="A1:N74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D79A7-299B-44C9-8203-AB62440D4FB2}">
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:N34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="22" customWidth="1"/>
-    <col min="3" max="8" width="10.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>9.2316900000000002E-10</v>
+      </c>
+      <c r="C2">
+        <v>1.05857E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21300</v>
+      </c>
+      <c r="B3">
+        <v>1.1762400000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.08529E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22600</v>
+      </c>
+      <c r="B4">
+        <v>2.3051899999999999E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.1117E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23900</v>
+      </c>
+      <c r="B5">
+        <v>3.3875799999999998E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.1377099999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25200</v>
+      </c>
+      <c r="B6">
+        <v>4.4241200000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.16329E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>26500</v>
+      </c>
+      <c r="B7">
+        <v>5.4155399999999999E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.18838E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>27800</v>
+      </c>
+      <c r="B8">
+        <v>6.3625599999999997E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.21291E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29100</v>
+      </c>
+      <c r="B9">
+        <v>7.2658899999999997E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.23684E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30400</v>
+      </c>
+      <c r="B10">
+        <v>8.1262499999999998E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.2600999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>31700</v>
+      </c>
+      <c r="B11">
+        <v>8.94438E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.2826499999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33000</v>
+      </c>
+      <c r="B12">
+        <v>9.7209700000000007E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.30443E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34300</v>
+      </c>
+      <c r="B13">
+        <v>1.04568E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.32538E-2</v>
+      </c>
+      <c r="D13">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35600</v>
+      </c>
+      <c r="B14">
+        <v>1.1152499999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.3454499999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>36900</v>
+      </c>
+      <c r="B15">
+        <v>1.18088E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.36461E-2</v>
+      </c>
+      <c r="D15">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>38200</v>
+      </c>
+      <c r="B16">
+        <v>1.24265E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.3827900000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39500</v>
+      </c>
+      <c r="B17">
+        <v>1.30063E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.39995E-2</v>
+      </c>
+      <c r="D17">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>40800</v>
+      </c>
+      <c r="B18">
+        <v>1.3548899999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.4160499999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>42100</v>
+      </c>
+      <c r="B19">
+        <v>1.4055E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.43105E-2</v>
+      </c>
+      <c r="D19">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>43400</v>
+      </c>
+      <c r="B20">
+        <v>1.45253E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.4449E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>44700</v>
+      </c>
+      <c r="B21">
+        <v>1.4960599999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.45758E-2</v>
+      </c>
+      <c r="D21">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46000</v>
+      </c>
+      <c r="B22">
+        <v>1.53615E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.4690399999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>47300</v>
+      </c>
+      <c r="B23">
+        <v>1.5728900000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.4792599999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>48600</v>
+      </c>
+      <c r="B24">
+        <v>1.6063399999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.48822E-2</v>
+      </c>
+      <c r="D24">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>49900</v>
+      </c>
+      <c r="B25">
+        <v>1.63657E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.49588E-2</v>
+      </c>
+      <c r="D25">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>51200</v>
+      </c>
+      <c r="B26">
+        <v>1.6636499999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.5022300000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>52500</v>
+      </c>
+      <c r="B27">
+        <v>1.6876700000000001E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.50724E-2</v>
+      </c>
+      <c r="D27">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>53800</v>
+      </c>
+      <c r="B28">
+        <v>1.7086799999999999E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.51092E-2</v>
+      </c>
+      <c r="D28">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>55100</v>
+      </c>
+      <c r="B29">
+        <v>1.72677E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.5132400000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>56400</v>
+      </c>
+      <c r="B30">
+        <v>1.7420000000000001E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.5141999999999999E-2</v>
+      </c>
+      <c r="D30">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>57700</v>
+      </c>
+      <c r="B31">
+        <v>1.7544400000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.5138E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>59000</v>
+      </c>
+      <c r="B32">
+        <v>1.7641799999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.51203E-2</v>
+      </c>
+      <c r="D32">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60300</v>
+      </c>
+      <c r="B33">
+        <v>1.7712700000000001E-2</v>
+      </c>
+      <c r="C33">
+        <v>1.5089099999999999E-2</v>
+      </c>
+      <c r="D33">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>61600</v>
+      </c>
+      <c r="B34">
+        <v>1.77579E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.5044500000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>62900</v>
+      </c>
+      <c r="B35">
+        <v>1.7778200000000001E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.49864E-2</v>
+      </c>
+      <c r="D35">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>64200</v>
+      </c>
+      <c r="B36">
+        <v>1.77743E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.49152E-2</v>
+      </c>
+      <c r="D36">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>65500</v>
+      </c>
+      <c r="B37">
+        <v>1.77468E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.4830899999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>66800</v>
+      </c>
+      <c r="B38">
+        <v>1.76965E-2</v>
+      </c>
+      <c r="C38">
+        <v>1.4733899999999999E-2</v>
+      </c>
+      <c r="D38">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>68100</v>
+      </c>
+      <c r="B39">
+        <v>1.76241E-2</v>
+      </c>
+      <c r="C39">
+        <v>1.46243E-2</v>
+      </c>
+      <c r="D39">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>69400</v>
+      </c>
+      <c r="B40">
+        <v>1.7530400000000002E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.45024E-2</v>
+      </c>
+      <c r="D40">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>70700</v>
+      </c>
+      <c r="B41">
+        <v>1.7416000000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.43687E-2</v>
+      </c>
+      <c r="D41">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>72000</v>
+      </c>
+      <c r="B42">
+        <v>1.7281700000000001E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.4223400000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>73300</v>
+      </c>
+      <c r="B43">
+        <v>1.71282E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.40669E-2</v>
+      </c>
+      <c r="D43">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>74600</v>
+      </c>
+      <c r="B44">
+        <v>1.6956300000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.38995E-2</v>
+      </c>
+      <c r="D44">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>75900</v>
+      </c>
+      <c r="B45">
+        <v>1.67665E-2</v>
+      </c>
+      <c r="C45">
+        <v>1.37219E-2</v>
+      </c>
+      <c r="D45">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>77200</v>
+      </c>
+      <c r="B46">
+        <v>1.65597E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.3534300000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>78500</v>
+      </c>
+      <c r="B47">
+        <v>1.63366E-2</v>
+      </c>
+      <c r="C47">
+        <v>1.33372E-2</v>
+      </c>
+      <c r="D47">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>79800</v>
+      </c>
+      <c r="B48">
+        <v>1.6097899999999998E-2</v>
+      </c>
+      <c r="C48">
+        <v>1.3131200000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>81100</v>
+      </c>
+      <c r="B49">
+        <v>1.5844299999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>1.2916800000000001E-2</v>
+      </c>
+      <c r="D49">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>82400</v>
+      </c>
+      <c r="B50">
+        <v>1.5576599999999999E-2</v>
+      </c>
+      <c r="C50">
+        <v>1.26944E-2</v>
+      </c>
+      <c r="D50">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>83700</v>
+      </c>
+      <c r="B51">
+        <v>1.5295400000000001E-2</v>
+      </c>
+      <c r="C51">
+        <v>1.24647E-2</v>
+      </c>
+      <c r="D51">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>85000</v>
+      </c>
+      <c r="B52">
+        <v>1.5001499999999999E-2</v>
+      </c>
+      <c r="C52">
+        <v>1.22281E-2</v>
+      </c>
+      <c r="D52">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>86300</v>
+      </c>
+      <c r="B53">
+        <v>1.46956E-2</v>
+      </c>
+      <c r="C53">
+        <v>1.19851E-2</v>
+      </c>
+      <c r="D53">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>87600</v>
+      </c>
+      <c r="B54">
+        <v>1.43784E-2</v>
+      </c>
+      <c r="C54">
+        <v>1.17365E-2</v>
+      </c>
+      <c r="D54">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>88900</v>
+      </c>
+      <c r="B55">
+        <v>1.40506E-2</v>
+      </c>
+      <c r="C55">
+        <v>1.1482600000000001E-2</v>
+      </c>
+      <c r="D55">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>90200</v>
+      </c>
+      <c r="B56">
+        <v>1.3713100000000001E-2</v>
+      </c>
+      <c r="C56">
+        <v>1.12242E-2</v>
+      </c>
+      <c r="D56">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>91500</v>
+      </c>
+      <c r="B57">
+        <v>1.3366299999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.09617E-2</v>
+      </c>
+      <c r="D57">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>92800</v>
+      </c>
+      <c r="B58">
+        <v>1.3011200000000001E-2</v>
+      </c>
+      <c r="C58">
+        <v>1.0695700000000001E-2</v>
+      </c>
+      <c r="D58">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>94100</v>
+      </c>
+      <c r="B59">
+        <v>1.2648400000000001E-2</v>
+      </c>
+      <c r="C59">
+        <v>1.04268E-2</v>
+      </c>
+      <c r="D59">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>95400</v>
+      </c>
+      <c r="B60">
+        <v>1.22787E-2</v>
+      </c>
+      <c r="C60">
+        <v>1.01554E-2</v>
+      </c>
+      <c r="D60">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>96700</v>
+      </c>
+      <c r="B61">
+        <v>1.19027E-2</v>
+      </c>
+      <c r="C61">
+        <v>9.8822900000000002E-3</v>
+      </c>
+      <c r="D61">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>98000</v>
+      </c>
+      <c r="B62">
+        <v>1.1521200000000001E-2</v>
+      </c>
+      <c r="C62">
+        <v>9.6078299999999995E-3</v>
+      </c>
+      <c r="D62">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>99300</v>
+      </c>
+      <c r="B63">
+        <v>1.11348E-2</v>
+      </c>
+      <c r="C63">
+        <v>9.3325999999999999E-3</v>
+      </c>
+      <c r="D63">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>100600</v>
+      </c>
+      <c r="B64">
+        <v>1.0744399999999999E-2</v>
+      </c>
+      <c r="C64">
+        <v>9.0570900000000003E-3</v>
+      </c>
+      <c r="D64">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>101900</v>
+      </c>
+      <c r="B65">
+        <v>1.0350699999999999E-2</v>
+      </c>
+      <c r="C65">
+        <v>8.7818099999999993E-3</v>
+      </c>
+      <c r="D65">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>103200</v>
+      </c>
+      <c r="B66">
+        <v>9.9542799999999994E-3</v>
+      </c>
+      <c r="C66">
+        <v>8.5072399999999992E-3</v>
+      </c>
+      <c r="D66">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>104500</v>
+      </c>
+      <c r="B67">
+        <v>9.5559600000000005E-3</v>
+      </c>
+      <c r="C67">
+        <v>8.2338299999999993E-3</v>
+      </c>
+      <c r="D67">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>105800</v>
+      </c>
+      <c r="B68">
+        <v>9.1564400000000001E-3</v>
+      </c>
+      <c r="C68">
+        <v>7.96205E-3</v>
+      </c>
+      <c r="D68">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>107100</v>
+      </c>
+      <c r="B69">
+        <v>8.7564400000000008E-3</v>
+      </c>
+      <c r="C69">
+        <v>7.6923099999999999E-3</v>
+      </c>
+      <c r="D69">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>108400</v>
+      </c>
+      <c r="B70">
+        <v>8.35668E-3</v>
+      </c>
+      <c r="C70">
+        <v>7.4250200000000001E-3</v>
+      </c>
+      <c r="D70">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>109700</v>
+      </c>
+      <c r="B71">
+        <v>7.9578800000000005E-3</v>
+      </c>
+      <c r="C71">
+        <v>7.1605699999999998E-3</v>
+      </c>
+      <c r="D71">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>111000</v>
+      </c>
+      <c r="B72">
+        <v>7.5607599999999997E-3</v>
+      </c>
+      <c r="C72">
+        <v>6.8993300000000004E-3</v>
+      </c>
+      <c r="D72">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>112300</v>
+      </c>
+      <c r="B73">
+        <v>7.1660400000000003E-3</v>
+      </c>
+      <c r="C73">
+        <v>6.6416399999999999E-3</v>
+      </c>
+      <c r="D73">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>113600</v>
+      </c>
+      <c r="B74">
+        <v>6.7744399999999996E-3</v>
+      </c>
+      <c r="C74">
+        <v>6.3878299999999997E-3</v>
+      </c>
+      <c r="D74">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>114900</v>
+      </c>
+      <c r="B75">
+        <v>6.3866799999999996E-3</v>
+      </c>
+      <c r="C75">
+        <v>6.13818E-3</v>
+      </c>
+      <c r="D75">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>116200</v>
+      </c>
+      <c r="B76">
+        <v>6.0034800000000003E-3</v>
+      </c>
+      <c r="C76">
+        <v>5.8929899999999999E-3</v>
+      </c>
+      <c r="D76">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>117500</v>
+      </c>
+      <c r="B77">
+        <v>5.6255599999999999E-3</v>
+      </c>
+      <c r="C77">
+        <v>5.6525000000000004E-3</v>
+      </c>
+      <c r="D77">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>118800</v>
+      </c>
+      <c r="B78">
+        <v>5.2536500000000003E-3</v>
+      </c>
+      <c r="C78">
+        <v>5.4169500000000002E-3</v>
+      </c>
+      <c r="D78">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>120100</v>
+      </c>
+      <c r="B79">
+        <v>4.8884499999999999E-3</v>
+      </c>
+      <c r="C79">
+        <v>5.1865399999999999E-3</v>
+      </c>
+      <c r="D79">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>121400</v>
+      </c>
+      <c r="B80">
+        <v>4.5306900000000004E-3</v>
+      </c>
+      <c r="C80">
+        <v>4.9614699999999999E-3</v>
+      </c>
+      <c r="D80">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>122700</v>
+      </c>
+      <c r="B81">
+        <v>4.1811000000000001E-3</v>
+      </c>
+      <c r="C81">
+        <v>4.7418900000000003E-3</v>
+      </c>
+      <c r="D81">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>124000</v>
+      </c>
+      <c r="B82">
+        <v>3.84038E-3</v>
+      </c>
+      <c r="C82">
+        <v>4.5279600000000001E-3</v>
+      </c>
+      <c r="D82">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>125300</v>
+      </c>
+      <c r="B83">
+        <v>3.5092700000000001E-3</v>
+      </c>
+      <c r="C83">
+        <v>4.3197899999999996E-3</v>
+      </c>
+      <c r="D83">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>126600</v>
+      </c>
+      <c r="B84">
+        <v>3.18848E-3</v>
+      </c>
+      <c r="C84">
+        <v>4.1174799999999998E-3</v>
+      </c>
+      <c r="D84">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>127900</v>
+      </c>
+      <c r="B85">
+        <v>2.8787299999999999E-3</v>
+      </c>
+      <c r="C85">
+        <v>3.9211100000000002E-3</v>
+      </c>
+      <c r="D85">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>129200</v>
+      </c>
+      <c r="B86">
+        <v>2.5807400000000002E-3</v>
+      </c>
+      <c r="C86">
+        <v>3.7307500000000001E-3</v>
+      </c>
+      <c r="D86">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>130500</v>
+      </c>
+      <c r="B87">
+        <v>2.2952300000000001E-3</v>
+      </c>
+      <c r="C87">
+        <v>3.5464400000000001E-3</v>
+      </c>
+      <c r="D87">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>131800</v>
+      </c>
+      <c r="B88">
+        <v>2.0229200000000001E-3</v>
+      </c>
+      <c r="C88">
+        <v>3.3682E-3</v>
+      </c>
+      <c r="D88">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>133100</v>
+      </c>
+      <c r="B89">
+        <v>1.76454E-3</v>
+      </c>
+      <c r="C89">
+        <v>3.1960399999999998E-3</v>
+      </c>
+      <c r="D89">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>134400</v>
+      </c>
+      <c r="B90">
+        <v>1.5207899999999999E-3</v>
+      </c>
+      <c r="C90">
+        <v>3.0299599999999999E-3</v>
+      </c>
+      <c r="D90">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>135700</v>
+      </c>
+      <c r="B91">
+        <v>1.2924099999999999E-3</v>
+      </c>
+      <c r="C91">
+        <v>2.8699200000000002E-3</v>
+      </c>
+      <c r="D91">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>137000</v>
+      </c>
+      <c r="B92">
+        <v>1.08011E-3</v>
+      </c>
+      <c r="C92">
+        <v>2.7158799999999999E-3</v>
+      </c>
+      <c r="D92">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>138300</v>
+      </c>
+      <c r="B93">
+        <v>8.8460800000000005E-4</v>
+      </c>
+      <c r="C93">
+        <v>2.5678099999999998E-3</v>
+      </c>
+      <c r="D93">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>139600</v>
+      </c>
+      <c r="B94">
+        <v>7.0663099999999999E-4</v>
+      </c>
+      <c r="C94">
+        <v>2.4256199999999999E-3</v>
+      </c>
+      <c r="D94">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>140900</v>
+      </c>
+      <c r="B95">
+        <v>5.4689500000000004E-4</v>
+      </c>
+      <c r="C95">
+        <v>2.2892400000000001E-3</v>
+      </c>
+      <c r="D95">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>142200</v>
+      </c>
+      <c r="B96">
+        <v>4.0612100000000001E-4</v>
+      </c>
+      <c r="C96">
+        <v>2.1585900000000002E-3</v>
+      </c>
+      <c r="D96">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>143500</v>
+      </c>
+      <c r="B97">
+        <v>2.85028E-4</v>
+      </c>
+      <c r="C97">
+        <v>2.0335599999999998E-3</v>
+      </c>
+      <c r="D97">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>144800</v>
+      </c>
+      <c r="B98">
+        <v>1.8433800000000001E-4</v>
+      </c>
+      <c r="C98">
+        <v>1.91406E-3</v>
+      </c>
+      <c r="D98">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>146100</v>
+      </c>
+      <c r="B99">
+        <v>1.0477E-4</v>
+      </c>
+      <c r="C99">
+        <v>1.79995E-3</v>
+      </c>
+      <c r="D99">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>147400</v>
+      </c>
+      <c r="B100" s="11">
+        <v>4.70447E-5</v>
+      </c>
+      <c r="C100">
+        <v>1.6911300000000001E-3</v>
+      </c>
+      <c r="D100">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>148700</v>
+      </c>
+      <c r="B101" s="11">
+        <v>1.1881200000000001E-5</v>
+      </c>
+      <c r="C101">
+        <v>1.58745E-3</v>
+      </c>
+      <c r="D101">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>150000</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1.48879E-3</v>
+      </c>
+      <c r="D102">
+        <v>9.9009900000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FA21F9-1524-4939-A076-9F03C746FDA3}">
+  <dimension ref="A1:O74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="20" customWidth="1"/>
+    <col min="3" max="8" width="10.140625" customWidth="1"/>
     <col min="11" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -800,10 +5136,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12">
@@ -812,16 +5148,16 @@
       <c r="D3" s="5">
         <v>-6.1932300240337297E-10</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>-6.1924110283939595E-10</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="29">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <v>-6.1925110798659998E-10</v>
       </c>
       <c r="K3" t="s">
@@ -832,31 +5168,31 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>-8.4307103929152802E-10</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="27">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>-8.4296181146470396E-10</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="29">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="25">
         <v>-8.4297706387517103E-10</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
         <v>21</v>
@@ -866,38 +5202,38 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>-6.9184281811449195E-10</v>
-      </c>
-      <c r="E5" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-6.91750101644572E-10</v>
-      </c>
-      <c r="G5" s="34">
-        <v>3.5566093235385901E-5</v>
-      </c>
-      <c r="H5" s="28">
-        <v>-6.91760975144364E-10</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>-6.8587300066388601E-10</v>
+      </c>
+      <c r="E5" s="27">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-6.8578132061958203E-10</v>
+      </c>
+      <c r="G5" s="29">
+        <v>3.5294117231833898E-5</v>
+      </c>
+      <c r="H5" s="25">
+        <v>-6.8579203883350499E-10</v>
+      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12">
@@ -906,16 +5242,16 @@
       <c r="D6" s="5">
         <v>-1.08772484489558E-9</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>-1.0875790268372E-9</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="29">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <v>-1.0876010243372899E-9</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -932,10 +5268,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12">
@@ -944,16 +5280,16 @@
       <c r="D7" s="5">
         <v>-1.8408499500647901E-9</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>-1.84056658802944E-9</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="25">
         <v>-1.84061117000361E-9</v>
       </c>
       <c r="K7" t="s">
@@ -970,29 +5306,29 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="12">
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>-1.53272709096412E-9</v>
-      </c>
-      <c r="E8" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F8" s="17">
-        <v>-1.5324834734542401E-9</v>
-      </c>
-      <c r="G8" s="34">
-        <v>3.5566093235385901E-5</v>
-      </c>
-      <c r="H8" s="28">
-        <v>-1.53251531220442E-9</v>
+        <v>-1.5185619091508199E-9</v>
+      </c>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>-1.5183204693514E-9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>3.5294117231833898E-5</v>
+      </c>
+      <c r="H8" s="25">
+        <v>-1.51835180890607E-9</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
@@ -1002,10 +5338,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="12">
@@ -1014,29 +5350,29 @@
       <c r="D9" s="5">
         <v>-2.4645703651258601E-15</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>-2.46210333757842E-15</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="29">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="25">
         <v>2.00199799399541E-3</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12">
@@ -1045,45 +5381,45 @@
       <c r="D10" s="5">
         <v>-6.0671101163679E-14</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="27">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>-6.06103695732221E-14</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="29">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="25">
         <v>2.0019979939932299E-3</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="12">
         <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>-5.67798829639722E-14</v>
-      </c>
-      <c r="E11" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-5.6723046471274401E-14</v>
-      </c>
-      <c r="G11" s="34">
-        <v>3.5566093235385901E-5</v>
-      </c>
-      <c r="H11" s="28">
-        <v>2.0019979939932902E-3</v>
+        <v>-5.6217705904922901E-14</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-5.61614321497752E-14</v>
+      </c>
+      <c r="G11" s="29">
+        <v>3.5294117231833898E-5</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2.0019979939932399E-3</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>27</v>
@@ -1091,10 +5427,10 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="12">
@@ -1103,16 +5439,16 @@
       <c r="D12" s="5">
         <v>-5.4537254328670404E-3</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>-5.36363156953711E-3</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>-1.43256233412321E-5</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -1121,10 +5457,10 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12">
@@ -1133,16 +5469,16 @@
       <c r="D13" s="5">
         <v>-5.7083408466750999E-3</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>-5.6182059838079104E-3</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="29">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="25">
         <v>-1.5383494175388902E-5</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -1151,38 +5487,38 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="12">
         <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>-5.2656070201319103E-3</v>
-      </c>
-      <c r="E14" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F14" s="17">
-        <v>-5.1755977872289796E-3</v>
-      </c>
-      <c r="G14" s="34">
-        <v>3.5566093235385901E-5</v>
-      </c>
-      <c r="H14" s="28">
-        <v>-1.2925666112242E-5</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>-5.2486619483199303E-3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>-5.1586579140803198E-3</v>
+      </c>
+      <c r="G14" s="29">
+        <v>3.5294117231833898E-5</v>
+      </c>
+      <c r="H14" s="25">
+        <v>-1.2836313842713399E-5</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="12">
@@ -1191,29 +5527,29 @@
       <c r="D15" s="5">
         <v>-3.2311605115447099E-5</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>-3.2280933940142998E-5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="29">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="25">
         <v>-2.9047209650894501E-6</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12">
@@ -1222,635 +5558,761 @@
       <c r="D16" s="5">
         <v>-3.6185364516640701E-5</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>-3.6154236441987503E-5</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="29">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="25">
         <v>-3.27385780707878E-6</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>-3.1435209091276702E-5</v>
-      </c>
-      <c r="E17" s="33">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-3.1404815311830703E-5</v>
-      </c>
-      <c r="G17" s="35">
-        <v>3.5566093235385901E-5</v>
-      </c>
-      <c r="H17" s="29">
-        <v>-2.7994387276786498E-6</v>
+        <v>-3.1255951357502798E-5</v>
+      </c>
+      <c r="E17" s="28">
+        <v>3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-3.1225586653249498E-5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>3.5294117231833898E-5</v>
+      </c>
+      <c r="H17" s="26">
+        <v>-2.7817432984747901E-6</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K18" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="23"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="19"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="23" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="L24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="K24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11">
+        <f>Sheet4!F3</f>
+        <v>-6.1924110283939595E-10</v>
+      </c>
+      <c r="D25" s="11">
+        <f>F3</f>
+        <v>-6.1924110283939595E-10</v>
+      </c>
+      <c r="E25" s="10">
+        <f>Sheet2!F3</f>
+        <v>-3.5441609647079899E-9</v>
+      </c>
+      <c r="F25" s="10">
+        <f>Sheet3!F3</f>
+        <v>-9.6483820932746702E-11</v>
+      </c>
+      <c r="G25" s="39">
+        <f>C25/D25</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <f>E25/F25</f>
+        <v>36.733215273246898</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="L25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="11">
+        <f>Sheet4!F4</f>
+        <v>-8.4296181146470396E-10</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26:D39" si="0">F4</f>
+        <v>-8.4296181146470396E-10</v>
+      </c>
+      <c r="E26" s="10">
+        <f>Sheet2!F4</f>
+        <v>-4.2986130210920204E-9</v>
+      </c>
+      <c r="F26" s="10">
+        <f>Sheet3!F4</f>
+        <v>-1.01718633516156E-10</v>
+      </c>
+      <c r="G26" s="39">
+        <f t="shared" ref="G26:G39" si="1">C26/D26</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <f>E26/F26</f>
+        <v>42.259838463217953</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="K26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>0.10215829999999999</v>
+      </c>
+      <c r="M26">
+        <v>0.100096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11">
+        <f>Sheet4!F5</f>
+        <v>-6.8578132061958203E-10</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>-6.8578132061958203E-10</v>
+      </c>
+      <c r="E27" s="10">
+        <f>Sheet2!F5</f>
+        <v>-3.3362553830684698E-9</v>
+      </c>
+      <c r="F27" s="10">
+        <f>Sheet3!F5</f>
+        <v>-9.52189438407913E-11</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <f>E27/F27</f>
+        <v>35.037727247287904</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="K27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27">
+        <v>0.101315</v>
+      </c>
+      <c r="M27">
+        <v>9.8958000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11">
+        <f>Sheet4!F6</f>
+        <v>-1.0875790268372E-9</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.0875790268372E-9</v>
+      </c>
+      <c r="E28" s="10">
+        <f>Sheet2!F6</f>
+        <v>-1.08430726619701E-8</v>
+      </c>
+      <c r="F28" s="10">
+        <f>Sheet3!F6</f>
+        <v>-1.1143386213774401E-10</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="18">
+        <f>E28/F28</f>
+        <v>97.305006341491762</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="K28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>0.10329099999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.101149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="11">
+        <f>Sheet4!F7</f>
+        <v>-1.84056658802944E-9</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.84056658802944E-9</v>
+      </c>
+      <c r="E29" s="10">
+        <f>Sheet2!F7</f>
+        <v>-1.5207273662554101E-8</v>
+      </c>
+      <c r="F29" s="10">
+        <f>Sheet3!F7</f>
+        <v>-1.1794498711026299E-10</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="18">
+        <f>E29/F29</f>
+        <v>128.93531158163853</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="11">
+        <f>Sheet4!F8</f>
+        <v>-1.5183204693514E-9</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.5183204693514E-9</v>
+      </c>
+      <c r="E30" s="10">
+        <f>Sheet2!F8</f>
+        <v>-1.0026316332734E-8</v>
+      </c>
+      <c r="F30" s="10">
+        <f>Sheet3!F8</f>
+        <v>-1.09870224029862E-10</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="18">
+        <f>E30/F30</f>
+        <v>91.255992433481467</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="L30" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11">
+        <f>Sheet4!F9</f>
+        <v>-2.46210333757842E-15</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.46210333757842E-15</v>
+      </c>
+      <c r="E31" s="10">
+        <f>Sheet2!F9</f>
+        <v>-3.2642736485631298E-13</v>
+      </c>
+      <c r="F31" s="10">
+        <f>Sheet3!F9</f>
+        <v>-2.5029301553482099E-65</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31/F31</f>
+        <v>1.3041808783949073E+52</v>
+      </c>
+      <c r="I31" s="18">
+        <f>H31-H33</f>
+        <v>5.2584259513251272E+39</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="N31" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="11">
+        <f>Sheet4!F10</f>
+        <v>-6.06103695732221E-14</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>-6.06103695732221E-14</v>
+      </c>
+      <c r="E32" s="10">
+        <f>Sheet2!F10</f>
+        <v>-1.44830094012261E-12</v>
+      </c>
+      <c r="F32" s="10">
+        <f>Sheet3!F10</f>
+        <v>-2.64273438607206E-64</v>
+      </c>
+      <c r="G32" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="18">
+        <f>E32/F32</f>
+        <v>5.4803121636270219E+51</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="K32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="14">
-        <f>D3</f>
-        <v>-6.1932300240337297E-10</v>
-      </c>
-      <c r="D25" s="10">
-        <f>Sheet2!D3</f>
-        <v>-3.5446021125700002E-9</v>
-      </c>
-      <c r="E25" s="10">
-        <f>Sheet3!D3</f>
-        <v>-9.6508306411817596E-11</v>
-      </c>
-      <c r="F25" s="19">
-        <f>D25/E25</f>
-        <v>36.728466640421303</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="K25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="41" t="s">
+      <c r="L32">
+        <v>26000</v>
+      </c>
+      <c r="M32" s="19">
+        <f>150000000/(L32*2)</f>
+        <v>2884.6153846153848</v>
+      </c>
+      <c r="N32">
+        <v>18600</v>
+      </c>
+      <c r="O32" s="19">
+        <f>150000000/(N32*2)</f>
+        <v>4032.2580645161293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="11">
+        <f>Sheet4!F11</f>
+        <v>-5.61614321497752E-14</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.61614321497752E-14</v>
+      </c>
+      <c r="E33" s="10">
+        <f>Sheet2!F11</f>
+        <v>-4.2930716224039998E-13</v>
+      </c>
+      <c r="F33" s="10">
+        <f>Sheet3!F11</f>
+        <v>-3.2917762355857701E-65</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="18">
+        <f>E33/F33</f>
+        <v>1.3041808783943814E+52</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="K33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="14">
-        <f t="shared" ref="C26:C39" si="0">D4</f>
-        <v>-8.4307103929152802E-10</v>
-      </c>
-      <c r="D26" s="10">
-        <f>Sheet2!D4</f>
-        <v>-4.2991684270657501E-9</v>
-      </c>
-      <c r="E26" s="10">
-        <f>Sheet3!D4</f>
-        <v>-1.0174362408393599E-10</v>
-      </c>
-      <c r="F26" s="19">
-        <f t="shared" ref="F26:F39" si="1">D26/E26</f>
-        <v>42.254917355008324</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="I26"/>
-      <c r="J26" s="41" t="s">
+      <c r="L33">
+        <v>21500</v>
+      </c>
+      <c r="M33" s="19">
+        <f>150000000/(L33*2)</f>
+        <v>3488.3720930232557</v>
+      </c>
+      <c r="N33">
+        <v>13200</v>
+      </c>
+      <c r="O33" s="19">
+        <f>150000000/(N33*2)</f>
+        <v>5681.818181818182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="21">
-        <v>0.10215829999999999</v>
-      </c>
-      <c r="L26" s="21">
-        <v>0.100096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="41" t="s">
+      <c r="C34" s="11">
+        <f>Sheet4!F12</f>
+        <v>-5.4753311624722301E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.36363156953711E-3</v>
+      </c>
+      <c r="E34" s="10">
+        <f>Sheet2!F12</f>
+        <v>-8.8757331977546896E-3</v>
+      </c>
+      <c r="F34" s="10">
+        <f>Sheet3!F12</f>
+        <v>-3.5398096985090801E-3</v>
+      </c>
+      <c r="G34" s="39">
+        <f t="shared" si="1"/>
+        <v>1.0208253664493887</v>
+      </c>
+      <c r="H34" s="18">
+        <f>E34/F34</f>
+        <v>2.5074040566341824</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="K34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="14">
+      <c r="L34">
+        <v>22700</v>
+      </c>
+      <c r="M34" s="19">
+        <f>150000000/(L34*2)</f>
+        <v>3303.964757709251</v>
+      </c>
+      <c r="N34">
+        <v>13600</v>
+      </c>
+      <c r="O34" s="19">
+        <f>150000000/(N34*2)</f>
+        <v>5514.7058823529414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="11">
+        <f>Sheet4!F13</f>
+        <v>-5.7299057996829097E-3</v>
+      </c>
+      <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>-6.9184281811449195E-10</v>
-      </c>
-      <c r="D27" s="10">
-        <f>Sheet2!D5</f>
-        <v>-3.3478104051217898E-9</v>
-      </c>
-      <c r="E27" s="10">
-        <f>Sheet3!D5</f>
-        <v>-9.5306506897653406E-11</v>
-      </c>
-      <c r="F27" s="19">
+        <v>-5.6182059838079104E-3</v>
+      </c>
+      <c r="E35" s="10">
+        <f>Sheet2!F13</f>
+        <v>-9.3230362363101397E-3</v>
+      </c>
+      <c r="F35" s="10">
+        <f>Sheet3!F13</f>
+        <v>-3.5893406794684701E-3</v>
+      </c>
+      <c r="G35" s="39">
         <f t="shared" si="1"/>
-        <v>35.126776902199296</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="I27"/>
-      <c r="J27" s="41" t="s">
+        <v>1.0198817587316888</v>
+      </c>
+      <c r="H35" s="18">
+        <f>E35/F35</f>
+        <v>2.5974230558941391</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="11">
+        <f>Sheet4!F14</f>
+        <v>-5.2703562608940003E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.1586579140803198E-3</v>
+      </c>
+      <c r="E36" s="10">
+        <f>Sheet2!F14</f>
+        <v>-8.7186773878329404E-3</v>
+      </c>
+      <c r="F36" s="10">
+        <f>Sheet3!F14</f>
+        <v>-3.5273062479745901E-3</v>
+      </c>
+      <c r="G36" s="39">
+        <f t="shared" si="1"/>
+        <v>1.0216525981513147</v>
+      </c>
+      <c r="H36" s="18">
+        <f>E36/F36</f>
+        <v>2.4717664911685171</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="11">
+        <f>Sheet4!F15</f>
+        <v>-3.2287241989337102E-5</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.2280933940142998E-5</v>
+      </c>
+      <c r="E37" s="10">
+        <f>Sheet2!F15</f>
+        <v>-8.38724432838944E-5</v>
+      </c>
+      <c r="F37" s="10">
+        <f>Sheet3!F15</f>
+        <v>-1.38607778552568E-5</v>
+      </c>
+      <c r="G37" s="39">
+        <f t="shared" si="1"/>
+        <v>1.0001954109879783</v>
+      </c>
+      <c r="H37" s="18">
+        <f>E37/F37</f>
+        <v>6.0510632346715783</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="21">
-        <v>0.101315</v>
-      </c>
-      <c r="L27" s="21">
-        <v>9.8958000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="C38" s="11">
+        <f>Sheet4!F16</f>
+        <v>-3.61605445213797E-5</v>
+      </c>
+      <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>-1.08772484489558E-9</v>
-      </c>
-      <c r="D28" s="10">
-        <f>Sheet2!D6</f>
-        <v>-1.08449606648003E-8</v>
-      </c>
-      <c r="E28" s="10">
-        <f>Sheet3!D6</f>
-        <v>-1.11460098434572E-10</v>
-      </c>
-      <c r="F28" s="19">
+        <v>-3.6154236441987503E-5</v>
+      </c>
+      <c r="E38" s="10">
+        <f>Sheet2!F16</f>
+        <v>-9.2497661977830603E-5</v>
+      </c>
+      <c r="F38" s="10">
+        <f>Sheet3!F16</f>
+        <v>-1.42338449062862E-5</v>
+      </c>
+      <c r="G38" s="39">
         <f t="shared" si="1"/>
-        <v>97.299040796795822</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="I28"/>
-      <c r="J28" s="41" t="s">
+        <v>1.0001744769081853</v>
+      </c>
+      <c r="H38" s="18">
+        <f>E38/F38</f>
+        <v>6.4984312100365917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="21">
-        <v>0.10329099999999999</v>
-      </c>
-      <c r="L28" s="21">
-        <v>0.101149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="41" t="s">
+      <c r="C39" s="11">
+        <f>Sheet4!F17</f>
+        <v>-3.1231894540795197E-5</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.1225586653249498E-5</v>
+      </c>
+      <c r="E39" s="10">
+        <f>Sheet2!F17</f>
+        <v>-8.1082068133397897E-5</v>
+      </c>
+      <c r="F39" s="10">
+        <f>Sheet3!F17</f>
+        <v>-1.37679637575161E-5</v>
+      </c>
+      <c r="G39" s="39">
+        <f t="shared" si="1"/>
+        <v>1.0002020102173179</v>
+      </c>
+      <c r="H39" s="18">
+        <f>E39/F39</f>
+        <v>5.8891837283588293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f>MIN(H25:H38)</f>
+        <v>2.4717664911685171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f>MAX(H25:H38)</f>
+        <v>1.3041808783949073E+52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
         <v>13</v>
       </c>
-      <c r="C29" s="14">
-        <f t="shared" si="0"/>
-        <v>-1.8408499500647901E-9</v>
-      </c>
-      <c r="D29" s="10">
-        <f>Sheet2!D7</f>
-        <v>-1.5210262331754102E-8</v>
-      </c>
-      <c r="E29" s="10">
-        <f>Sheet3!D7</f>
-        <v>-1.17972164940598E-10</v>
-      </c>
-      <c r="F29" s="19">
-        <f t="shared" si="1"/>
-        <v>128.93094179811703</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="41" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
         <v>14</v>
       </c>
-      <c r="C30" s="14">
-        <f t="shared" si="0"/>
-        <v>-1.53272709096412E-9</v>
-      </c>
-      <c r="D30" s="10">
-        <f>Sheet2!D8</f>
-        <v>-1.00783260050611E-8</v>
-      </c>
-      <c r="E30" s="10">
-        <f>Sheet3!D8</f>
-        <v>-1.09974911988821E-10</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" si="1"/>
-        <v>91.642046561360885</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="I30"/>
-      <c r="K30" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14">
-        <f t="shared" si="0"/>
-        <v>-2.4645703651258601E-15</v>
-      </c>
-      <c r="D31" s="10">
-        <f>Sheet2!D9</f>
-        <v>-3.2675444507663401E-13</v>
-      </c>
-      <c r="E31" s="10">
-        <f>Sheet3!D9</f>
-        <v>-2.50543809137194E-65</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" si="1"/>
-        <v>1.3041808783936394E+52</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="I31"/>
-      <c r="K31" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="14">
-        <f t="shared" si="0"/>
-        <v>-6.0671101163679E-14</v>
-      </c>
-      <c r="D32" s="10">
-        <f>Sheet2!D10</f>
-        <v>-1.44975213766812E-12</v>
-      </c>
-      <c r="E32" s="10">
-        <f>Sheet3!D10</f>
-        <v>-2.6453824059299399E-64</v>
-      </c>
-      <c r="F32" s="19">
-        <f t="shared" si="1"/>
-        <v>5.4803121636339904E+51</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="I32"/>
-      <c r="J32" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="21">
-        <v>26000</v>
-      </c>
-      <c r="L32" s="20">
-        <f>150000000/(K32*2)</f>
-        <v>2884.6153846153848</v>
-      </c>
-      <c r="M32" s="21">
-        <v>18600</v>
-      </c>
-      <c r="N32" s="20">
-        <f>150000000/(M32*2)</f>
-        <v>4032.2580645161293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="14">
-        <f t="shared" si="0"/>
-        <v>-5.67798829639722E-14</v>
-      </c>
-      <c r="D33" s="10">
-        <f>Sheet2!D11</f>
-        <v>-4.3403282602861801E-13</v>
-      </c>
-      <c r="E33" s="10">
-        <f>Sheet3!D11</f>
-        <v>-3.32801096243048E-65</v>
-      </c>
-      <c r="F33" s="19">
-        <f t="shared" si="1"/>
-        <v>1.30418087839362E+52</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="I33"/>
-      <c r="J33" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="21">
-        <v>21500</v>
-      </c>
-      <c r="L33" s="20">
-        <f>150000000/(K33*2)</f>
-        <v>3488.3720930232557</v>
-      </c>
-      <c r="M33" s="21">
-        <v>13200</v>
-      </c>
-      <c r="N33" s="20">
-        <f>150000000/(M33*2)</f>
-        <v>5681.818181818182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14">
-        <f t="shared" si="0"/>
-        <v>-5.4537254328670404E-3</v>
-      </c>
-      <c r="D34" s="10">
-        <f>Sheet2!D12</f>
-        <v>-8.9664719524501103E-3</v>
-      </c>
-      <c r="E34" s="10">
-        <f>Sheet3!D12</f>
-        <v>-3.6293309423018499E-3</v>
-      </c>
-      <c r="F34" s="19">
-        <f t="shared" si="1"/>
-        <v>2.4705578231902039</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="I34"/>
-      <c r="J34" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="21">
-        <v>22700</v>
-      </c>
-      <c r="L34" s="20">
-        <f>150000000/(K34*2)</f>
-        <v>3303.964757709251</v>
-      </c>
-      <c r="M34" s="21">
-        <v>13600</v>
-      </c>
-      <c r="N34" s="20">
-        <f>150000000/(M34*2)</f>
-        <v>5514.7058823529414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="14">
-        <f t="shared" si="0"/>
-        <v>-5.7083408466750999E-3</v>
-      </c>
-      <c r="D35" s="10">
-        <f>Sheet2!D13</f>
-        <v>-9.4138385393853601E-3</v>
-      </c>
-      <c r="E35" s="10">
-        <f>Sheet3!D13</f>
-        <v>-3.6788857324597198E-3</v>
-      </c>
-      <c r="F35" s="19">
-        <f t="shared" si="1"/>
-        <v>2.5588831031974522</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="14">
-        <f t="shared" si="0"/>
-        <v>-5.2656070201319103E-3</v>
-      </c>
-      <c r="D36" s="10">
-        <f>Sheet2!D14</f>
-        <v>-8.8174198398082992E-3</v>
-      </c>
-      <c r="E36" s="10">
-        <f>Sheet3!D14</f>
-        <v>-3.6174479813192101E-3</v>
-      </c>
-      <c r="F36" s="19">
-        <f t="shared" si="1"/>
-        <v>2.4374696983459496</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="14">
-        <f t="shared" si="0"/>
-        <v>-3.2311605115447099E-5</v>
-      </c>
-      <c r="D37" s="10">
-        <f>Sheet2!D15</f>
-        <v>-8.3909475619452106E-5</v>
-      </c>
-      <c r="E37" s="10">
-        <f>Sheet3!D15</f>
-        <v>-1.3888379188129001E-5</v>
-      </c>
-      <c r="F37" s="19">
-        <f t="shared" si="1"/>
-        <v>6.0417039657999236</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="14">
-        <f t="shared" si="0"/>
-        <v>-3.6185364516640701E-5</v>
-      </c>
-      <c r="D38" s="10">
-        <f>Sheet2!D16</f>
-        <v>-9.2535779243736602E-5</v>
-      </c>
-      <c r="E38" s="10">
-        <f>Sheet3!D16</f>
-        <v>-1.42615401321682E-5</v>
-      </c>
-      <c r="F38" s="19">
-        <f t="shared" si="1"/>
-        <v>6.48848430016431</v>
-      </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="14">
-        <f t="shared" si="0"/>
-        <v>-3.1435209091276702E-5</v>
-      </c>
-      <c r="D39" s="10">
-        <f>Sheet2!D17</f>
-        <v>-8.1263277934568993E-5</v>
-      </c>
-      <c r="E39" s="10">
-        <f>Sheet3!D17</f>
-        <v>-1.38001947559583E-5</v>
-      </c>
-      <c r="F39" s="19">
-        <f t="shared" si="1"/>
-        <v>5.8885602248101012</v>
-      </c>
-      <c r="I39"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>3</v>
-      </c>
-    </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1865,62 +6327,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AB99F-1E8D-4075-8F81-8CB3E8544B40}">
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D43"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.140625" style="22" customWidth="1"/>
-    <col min="3" max="7" width="10.140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="1" max="2" width="10.140625" style="20" customWidth="1"/>
+    <col min="3" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="11" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1943,19 +6404,19 @@
       <c r="D3" s="5">
         <v>-3.5446021125700002E-9</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="27">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>-3.5441609647079899E-9</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="29">
         <v>1.2499791682765799E-4</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <v>-3.5443096586359199E-9</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="11"/>
       <c r="K3" t="s">
         <v>20</v>
       </c>
@@ -1973,22 +6434,22 @@
       <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>-4.2991684270657501E-9</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="27">
         <v>2.99999999999272</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>-4.2986130210920204E-9</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="29">
         <v>1.38191060805312E-4</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="25">
         <v>-4.2988119067324798E-9</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
         <v>21</v>
@@ -2008,21 +6469,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>-3.3478104051217898E-9</v>
-      </c>
-      <c r="E5" s="32">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-3.3473954719198599E-9</v>
-      </c>
-      <c r="G5" s="34">
-        <v>1.20240476142666E-4</v>
-      </c>
-      <c r="H5" s="28">
-        <v>-3.3475314819840799E-9</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>-3.33666890002496E-9</v>
+      </c>
+      <c r="E5" s="27">
+        <v>3.00000000000363</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-3.3362553830684698E-9</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1.19999995200145E-4</v>
+      </c>
+      <c r="H5" s="25">
+        <v>-3.3363906994495499E-9</v>
+      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2038,19 +6499,19 @@
       <c r="D6" s="5">
         <v>-1.08449606648003E-8</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <v>3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>-1.08430726619701E-8</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="29">
         <v>1.2499791682765799E-4</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <v>-1.08438630800738E-8</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="11"/>
       <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
@@ -2077,19 +6538,19 @@
       <c r="D7" s="5">
         <v>-1.5210262331754102E-8</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <v>2.99999999999272</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>-1.5207273662554101E-8</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>1.38191060805312E-4</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="25">
         <v>-1.5208591295457499E-8</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="11"/>
       <c r="K7" t="s">
         <v>34</v>
       </c>
@@ -2114,21 +6575,21 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>-1.00783260050611E-8</v>
-      </c>
-      <c r="E8" s="32">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17">
-        <v>-1.00765762400811E-8</v>
-      </c>
-      <c r="G8" s="34">
-        <v>1.20240476142666E-4</v>
-      </c>
-      <c r="H8" s="28">
-        <v>-1.00772772692806E-8</v>
-      </c>
-      <c r="I8" s="14"/>
+        <v>-1.00280554469019E-8</v>
+      </c>
+      <c r="E8" s="27">
+        <v>3.00000000000363</v>
+      </c>
+      <c r="F8" s="16">
+        <v>-1.0026316332734E-8</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1.19999995200145E-4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>-1.0027011922812601E-8</v>
+      </c>
+      <c r="I8" s="11"/>
       <c r="L8" t="s">
         <v>23</v>
       </c>
@@ -2149,19 +6610,19 @@
       <c r="D9" s="5">
         <v>-3.2675444507663401E-13</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>-3.2642736485631298E-13</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="29">
         <v>1.2499791682765799E-4</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="25">
         <v>2.0019979939934901E-3</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="N9" t="s">
         <v>26</v>
@@ -2180,19 +6641,19 @@
       <c r="D10" s="5">
         <v>-1.44975213766812E-12</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="27">
         <v>2.99999999999272</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>-1.44830094012261E-12</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="29">
         <v>1.38191060805312E-4</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="25">
         <v>2.0019979939931601E-3</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2206,21 +6667,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>-4.3403282602861801E-13</v>
-      </c>
-      <c r="E11" s="32">
-        <v>3</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-4.3359836047040998E-13</v>
-      </c>
-      <c r="G11" s="34">
-        <v>1.20240476142666E-4</v>
-      </c>
-      <c r="H11" s="28">
-        <v>2.0019979939933001E-3</v>
-      </c>
-      <c r="I11" s="14"/>
+        <v>-4.2973732801794601E-13</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3.00000000000363</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-4.2930716224039998E-13</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1.19999995200145E-4</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2.0019979939934198E-3</v>
+      </c>
+      <c r="I11" s="11"/>
       <c r="K11" s="9" t="s">
         <v>27</v>
       </c>
@@ -2239,19 +6700,19 @@
       <c r="D12" s="5">
         <v>-8.9664719524501103E-3</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="27">
         <v>3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>-8.8757331977546896E-3</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>1.2499791682765799E-4</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>-4.0129332667316601E-5</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="9" t="s">
         <v>37</v>
       </c>
@@ -2270,19 +6731,19 @@
       <c r="D13" s="5">
         <v>-9.4138385393853601E-3</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>2.99999999999272</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>-9.3230362363101397E-3</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="29">
         <v>1.38191060805312E-4</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="25">
         <v>-4.4260065689590201E-5</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="11"/>
       <c r="K13" s="9" t="s">
         <v>29</v>
       </c>
@@ -2299,21 +6760,21 @@
         <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>-8.8174198398082992E-3</v>
-      </c>
-      <c r="E14" s="32">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17">
-        <v>-8.7267027304562799E-3</v>
-      </c>
-      <c r="G14" s="34">
-        <v>1.20240476142666E-4</v>
-      </c>
-      <c r="H14" s="28">
-        <v>-3.87431889167756E-5</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>-8.8093933314004995E-3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>3.00000000000363</v>
+      </c>
+      <c r="F14" s="16">
+        <v>-8.7186773878329404E-3</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1.19999995200145E-4</v>
+      </c>
+      <c r="H14" s="25">
+        <v>-3.8670610411767201E-5</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2329,19 +6790,19 @@
       <c r="D15" s="5">
         <v>-8.3909475619452106E-5</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="27">
         <v>3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>-8.38724432838944E-5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="29">
         <v>1.2499791682765799E-4</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="25">
         <v>-8.3187126843450197E-6</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9" t="s">
         <v>31</v>
@@ -2360,19 +6821,19 @@
       <c r="D16" s="5">
         <v>-9.2535779243736602E-5</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <v>2.99999999999272</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>-9.2497661977830603E-5</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="29">
         <v>1.38191060805312E-4</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="25">
         <v>-9.2652857036255207E-6</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="11"/>
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
@@ -2388,21 +6849,21 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>-8.1263277934568993E-5</v>
-      </c>
-      <c r="E17" s="33">
-        <v>3</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-8.1226560613600896E-5</v>
-      </c>
-      <c r="G17" s="35">
-        <v>1.20240476142666E-4</v>
-      </c>
-      <c r="H17" s="29">
-        <v>-8.0280422096817897E-6</v>
-      </c>
-      <c r="I17" s="14"/>
+        <v>-8.11187680114149E-5</v>
+      </c>
+      <c r="E17" s="28">
+        <v>3.00000000000363</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-8.1082068133397897E-5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1.19999995200145E-4</v>
+      </c>
+      <c r="H17" s="26">
+        <v>-8.0122629551649892E-6</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="K17" s="9" t="s">
         <v>30</v>
       </c>
@@ -2413,205 +6874,190 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="23"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="23"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="10"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="I25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="10"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="I26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="10"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="I27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="10"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="I28"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="10"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="I29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="10"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="I30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="10"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="I31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="10"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="19"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="10"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
-      <c r="D34" s="19"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="10"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="19"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="11"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="10"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="19"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="11"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="10"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="19"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="11"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="10"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="I39"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="11"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="20">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2625,61 +7071,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8A15A5-DF59-4294-9A43-F1968F75678E}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.140625" style="22" customWidth="1"/>
-    <col min="3" max="8" width="10.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="1" max="2" width="10.140625" style="20" customWidth="1"/>
+    <col min="3" max="8" width="10.140625" customWidth="1"/>
     <col min="11" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -2702,16 +7147,16 @@
       <c r="D3" s="5">
         <v>-9.6508306411817596E-11</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="27">
         <v>2.9999999999417901</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>-9.6483820932746702E-11</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="29">
         <v>2.0833275466227E-5</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <v>-9.6484491090828606E-11</v>
       </c>
       <c r="K3" t="s">
@@ -2731,22 +7176,22 @@
       <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>-1.0174362408393599E-10</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>-1.01718633516156E-10</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="29">
         <v>2.1396936424923301E-5</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="25">
         <v>-1.01719359012686E-10</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
         <v>21</v>
@@ -2766,21 +7211,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>-9.5306506897653406E-11</v>
-      </c>
-      <c r="E5" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-9.5282448597799794E-11</v>
-      </c>
-      <c r="G5" s="34">
-        <v>2.06967918542539E-5</v>
-      </c>
-      <c r="H5" s="28">
-        <v>-9.5283106210222204E-11</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>-9.5242989558105906E-11</v>
+      </c>
+      <c r="E5" s="27">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-9.52189438407913E-11</v>
+      </c>
+      <c r="G5" s="29">
+        <v>2.0689655029726499E-5</v>
+      </c>
+      <c r="H5" s="25">
+        <v>-9.5219600793367896E-11</v>
+      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2796,16 +7241,16 @@
       <c r="D6" s="5">
         <v>-1.11460098434572E-10</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <v>2.9999999999417901</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>-1.1143386213774401E-10</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="29">
         <v>2.0833275466227E-5</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <v>-1.11434693921957E-10</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -2834,16 +7279,16 @@
       <c r="D7" s="5">
         <v>-1.17972164940598E-10</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>-1.1794498711026299E-10</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>2.1396936424923301E-5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="25">
         <v>-1.17945892947427E-10</v>
       </c>
       <c r="K7" t="s">
@@ -2870,19 +7315,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>-1.09974911988821E-10</v>
-      </c>
-      <c r="E8" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F8" s="17">
-        <v>-1.09948827820005E-10</v>
-      </c>
-      <c r="G8" s="34">
-        <v>2.06967918542539E-5</v>
-      </c>
-      <c r="H8" s="28">
-        <v>-1.09949642936641E-10</v>
+        <v>-1.09896385412904E-10</v>
+      </c>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>-1.09870224029862E-10</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2.0689655029726499E-5</v>
+      </c>
+      <c r="H8" s="25">
+        <v>-1.09871038269295E-10</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
@@ -2904,19 +7349,19 @@
       <c r="D9" s="5">
         <v>-2.50543809137194E-65</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>2.9999999999417901</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>-2.5029301553482099E-65</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="29">
         <v>2.0833275466227E-5</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="25">
         <v>2.0019979939915398E-3</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="N9" t="s">
         <v>26</v>
@@ -2935,19 +7380,19 @@
       <c r="D10" s="5">
         <v>-2.6453824059299399E-64</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>-2.64273438607206E-64</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="29">
         <v>2.1396936424923301E-5</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="25">
         <v>2.0019979939957001E-3</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2961,19 +7406,19 @@
         <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>-3.32801096243048E-65</v>
-      </c>
-      <c r="E11" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-3.3246796334285802E-65</v>
-      </c>
-      <c r="G11" s="34">
-        <v>2.06967918542539E-5</v>
-      </c>
-      <c r="H11" s="28">
-        <v>2.0019979939924601E-3</v>
+        <v>-3.29507459538327E-65</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-3.2917762355857701E-65</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2.0689655029726499E-5</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2.0019979939922602E-3</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>27</v>
@@ -2993,16 +7438,16 @@
       <c r="D12" s="5">
         <v>-3.6293309423018499E-3</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="27">
         <v>2.9999999999417901</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>-3.5398096985090801E-3</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>2.0833275466227E-5</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>-6.5847724228388804E-6</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -3023,16 +7468,16 @@
       <c r="D13" s="5">
         <v>-3.6788857324597198E-3</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>-3.5893406794684701E-3</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="29">
         <v>2.1396936424923301E-5</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="25">
         <v>-6.7661562474356696E-6</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -3051,21 +7496,21 @@
         <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>-3.6174479813192101E-3</v>
-      </c>
-      <c r="E14" s="32">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F14" s="17">
-        <v>-3.52793260435646E-3</v>
-      </c>
-      <c r="G14" s="34">
-        <v>2.06967918542539E-5</v>
-      </c>
-      <c r="H14" s="28">
-        <v>-6.5413864178142298E-6</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>-3.6168213158321002E-3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>-3.5273062479745901E-3</v>
+      </c>
+      <c r="G14" s="29">
+        <v>2.0689655029726499E-5</v>
+      </c>
+      <c r="H14" s="25">
+        <v>-6.5391074492016498E-6</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3081,19 +7526,19 @@
       <c r="D15" s="5">
         <v>-1.3888379188129001E-5</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="27">
         <v>2.9999999999417901</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>-1.38607778552568E-5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="29">
         <v>2.0833275466227E-5</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="25">
         <v>-1.16698015853115E-6</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9" t="s">
         <v>31</v>
@@ -3112,16 +7557,16 @@
       <c r="D16" s="5">
         <v>-1.42615401321682E-5</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <v>2.99999999997089</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>-1.42338449062862E-5</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="29">
         <v>2.1396936424923301E-5</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="25">
         <v>-1.20107981141842E-6</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -3139,19 +7584,19 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>-1.38001947559583E-5</v>
-      </c>
-      <c r="E17" s="33">
-        <v>2.99999999997089</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-1.37726161941742E-5</v>
-      </c>
-      <c r="G17" s="35">
-        <v>2.06967918542539E-5</v>
-      </c>
-      <c r="H17" s="29">
-        <v>-1.1589262062362E-6</v>
+        <v>-1.37955411245142E-5</v>
+      </c>
+      <c r="E17" s="28">
+        <v>3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-1.37679637575161E-5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>2.0689655029726499E-5</v>
+      </c>
+      <c r="H17" s="26">
+        <v>-1.15850147110394E-6</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>30</v>
@@ -3163,225 +7608,1012 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="23"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="23"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="23"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="23"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="23"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="23"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="19"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="23"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="19"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="23"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="23"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="23"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="19"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="23"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="19"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="23"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="19"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="23"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="19"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="23"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="19"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="23"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="19"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="20">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3B73F8-8536-477E-805C-372A2765E0C2}">
+  <dimension ref="A1:N74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.140625" style="20" customWidth="1"/>
+    <col min="3" max="8" width="10.140625" customWidth="1"/>
+    <col min="11" max="14" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-6.1932298988551197E-10</v>
+      </c>
+      <c r="E3" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F3" s="16">
+        <v>-6.1924110283939595E-10</v>
+      </c>
+      <c r="G3" s="29">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="H3" s="25">
+        <v>-6.1925110798659998E-10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D4" s="22">
+        <v>-8.4307102677337099E-10</v>
+      </c>
+      <c r="E4" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F4" s="16">
+        <v>-8.4296181146470396E-10</v>
+      </c>
+      <c r="G4" s="29">
+        <v>-1.7891028007769002E-5</v>
+      </c>
+      <c r="H4" s="25">
+        <v>-8.4297706387517103E-10</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-6.8587298814768103E-10</v>
+      </c>
+      <c r="E5" s="27">
+        <v>-1.24666666667326</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-6.8578132061958203E-10</v>
+      </c>
+      <c r="G5" s="29">
+        <v>-1.46666664941952E-5</v>
+      </c>
+      <c r="H5" s="25">
+        <v>-6.8579203883350499E-10</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-1.08772483237645E-9</v>
+      </c>
+      <c r="E6" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F6" s="16">
+        <v>-1.0875790268372E-9</v>
+      </c>
+      <c r="G6" s="29">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="H6" s="25">
+        <v>-1.0876010243372899E-9</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-1.84084993754536E-9</v>
+      </c>
+      <c r="E7" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F7" s="16">
+        <v>-1.84056658802944E-9</v>
+      </c>
+      <c r="G7" s="29">
+        <v>-1.7891028007769002E-5</v>
+      </c>
+      <c r="H7" s="25">
+        <v>-1.84061117000361E-9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.5185618966333399E-9</v>
+      </c>
+      <c r="E8" s="27">
+        <v>-1.24666666667326</v>
+      </c>
+      <c r="F8" s="16">
+        <v>-1.5183204693514E-9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>-1.46666664941952E-5</v>
+      </c>
+      <c r="H8" s="25">
+        <v>-1.51835180890607E-9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-2.4645703651258601E-15</v>
+      </c>
+      <c r="E9" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F9" s="16">
+        <v>-2.46210333757842E-15</v>
+      </c>
+      <c r="G9" s="29">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2.00199799399541E-3</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-6.0671101163679E-14</v>
+      </c>
+      <c r="E10" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-6.06103695732221E-14</v>
+      </c>
+      <c r="G10" s="29">
+        <v>-1.7891028007769002E-5</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2.0019979939932299E-3</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-5.6217705904922901E-14</v>
+      </c>
+      <c r="E11" s="27">
+        <v>-1.24666666667326</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-5.61614321497752E-14</v>
+      </c>
+      <c r="G11" s="29">
+        <v>-1.46666664941952E-5</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2.0019979939932399E-3</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-5.5095821825268303E-3</v>
+      </c>
+      <c r="E12" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F12" s="16">
+        <v>-5.4753311624722301E-3</v>
+      </c>
+      <c r="G12" s="29">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="H12" s="25">
+        <v>-1.4623959696929101E-5</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-5.7641974848755403E-3</v>
+      </c>
+      <c r="E13" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F13" s="16">
+        <v>-5.7299057996829097E-3</v>
+      </c>
+      <c r="G13" s="29">
+        <v>-1.7891028007769002E-5</v>
+      </c>
+      <c r="H13" s="25">
+        <v>-1.56893450950343E-5</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-5.3045193205784203E-3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>-1.24666666667326</v>
+      </c>
+      <c r="F14" s="16">
+        <v>-5.2703562608940003E-3</v>
+      </c>
+      <c r="G14" s="29">
+        <v>-1.46666664941952E-5</v>
+      </c>
+      <c r="H14" s="25">
+        <v>-1.31142533880938E-5</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-3.2311606017060498E-5</v>
+      </c>
+      <c r="E15" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F15" s="16">
+        <v>-3.2287241989337102E-5</v>
+      </c>
+      <c r="G15" s="29">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="H15" s="25">
+        <v>-2.9052885794830402E-6</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-3.6185365389143699E-5</v>
+      </c>
+      <c r="E16" s="27">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="F16" s="16">
+        <v>-3.61605445213797E-5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>-1.7891028007769002E-5</v>
+      </c>
+      <c r="H16" s="25">
+        <v>-3.2744290196667999E-6</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-1.2466666666666599</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-3.1255952421723998E-5</v>
+      </c>
+      <c r="E17" s="28">
+        <v>-1.24666666667326</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-3.1231894540795197E-5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>-1.46666664941952E-5</v>
+      </c>
+      <c r="H17" s="26">
+        <v>-2.7823052390430302E-6</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="21"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="21"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="K31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="J34" s="9"/>
+      <c r="L34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Python/Results Array.xlsx
+++ b/Python/Results Array.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Lottery\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KerkP\GIT Repositories\Lottery\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C4154-3E47-42F0-9AE3-BADABB7D08B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B0575-A291-488A-9A1E-5478E16B564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="690" windowWidth="19440" windowHeight="19140" activeTab="4" xr2:uid="{B3EB2355-D439-41FF-A0B0-1141EA110A80}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="24375" windowHeight="15390" activeTab="2" xr2:uid="{B3EB2355-D439-41FF-A0B0-1141EA110A80}"/>
   </bookViews>
   <sheets>
     <sheet name="PDFs" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="68">
   <si>
     <t>list</t>
   </si>
@@ -204,16 +204,61 @@
   <si>
     <t>ratio2</t>
   </si>
+  <si>
+    <t>cdiff</t>
+  </si>
+  <si>
+    <t>udiff</t>
+  </si>
+  <si>
+    <t>Eulotterylose</t>
+  </si>
+  <si>
+    <t>Eulotterywin</t>
+  </si>
+  <si>
+    <t>2*Margu</t>
+  </si>
+  <si>
+    <t>cdiff/Ec</t>
+  </si>
+  <si>
+    <t>udiff/Eu</t>
+  </si>
+  <si>
+    <t>2*Margu/Eu</t>
+  </si>
+  <si>
+    <t>win/lose</t>
+  </si>
+  <si>
+    <t>Payoff</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>1.5 billion</t>
+  </si>
+  <si>
+    <t>226 million</t>
+  </si>
+  <si>
+    <t>23.3 trillion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.000000000%"/>
+    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -356,7 +401,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,6 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,7 +476,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3289,7 +3384,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A6BCAC31-CF9F-4CDB-A1CC-F9C19E6D05A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3301,7 +3396,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6294783"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5073,59 +5168,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FA21F9-1524-4939-A076-9F03C746FDA3}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="20" customWidth="1"/>
-    <col min="3" max="8" width="10.140625" customWidth="1"/>
+    <col min="3" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="8" width="10.140625" customWidth="1"/>
     <col min="11" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="73" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -5136,28 +5234,28 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="55">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="66">
         <v>-6.1932300240337297E-10</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="18">
         <v>2.99999999997089</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>-6.1924110283939595E-10</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="7">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="7">
         <v>-6.1925110798659998E-10</v>
       </c>
       <c r="K3" t="s">
@@ -5168,28 +5266,28 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="55">
         <v>3</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="66">
         <v>-8.4307103929152802E-10</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="18">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>-8.4296181146470396E-10</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="7">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="7">
         <v>-8.4297706387517103E-10</v>
       </c>
       <c r="I4" s="11"/>
@@ -5202,56 +5300,56 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="55">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="66">
         <v>-6.8587300066388601E-10</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="18">
         <v>3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <v>-6.8578132061958203E-10</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="7">
         <v>3.5294117231833898E-5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="7">
         <v>-6.8579203883350499E-10</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="55">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="66">
         <v>-1.08772484489558E-9</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="18">
         <v>2.99999999997089</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="10">
         <v>-1.0875790268372E-9</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="7">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="7">
         <v>-1.0876010243372899E-9</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -5268,28 +5366,28 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="55">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="66">
         <v>-1.8408499500647901E-9</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="18">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="10">
         <v>-1.84056658802944E-9</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="7">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="7">
         <v>-1.84061117000361E-9</v>
       </c>
       <c r="K7" t="s">
@@ -5306,28 +5404,28 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="55">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="66">
         <v>-1.5185619091508199E-9</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="18">
         <v>3</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="10">
         <v>-1.5183204693514E-9</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="7">
         <v>3.5294117231833898E-5</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="7">
         <v>-1.51835180890607E-9</v>
       </c>
       <c r="L8" t="s">
@@ -5338,28 +5436,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="55">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="66">
         <v>-2.4645703651258601E-15</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="18">
         <v>2.99999999997089</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="10">
         <v>-2.46210333757842E-15</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="7">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="7">
         <v>2.00199799399541E-3</v>
       </c>
       <c r="I9" s="11"/>
@@ -5369,56 +5467,56 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="55">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="66">
         <v>-6.0671101163679E-14</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="18">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>-6.06103695732221E-14</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="7">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="7">
         <v>2.0019979939932299E-3</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="55">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="66">
         <v>-5.6217705904922901E-14</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="18">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <v>-5.61614321497752E-14</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="7">
         <v>3.5294117231833898E-5</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="7">
         <v>2.0019979939932399E-3</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -5427,28 +5525,28 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="55">
         <v>3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="66">
         <v>-5.4537254328670404E-3</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="18">
         <v>2.99999999997089</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>-5.36363156953711E-3</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="7">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="7">
         <v>-1.43256233412321E-5</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -5457,28 +5555,28 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="55">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="66">
         <v>-5.7083408466750999E-3</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="18">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="10">
         <v>-5.6182059838079104E-3</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="7">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="7">
         <v>-1.5383494175388902E-5</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -5487,56 +5585,56 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="55">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="66">
         <v>-5.2486619483199303E-3</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="10">
         <v>-5.1586579140803198E-3</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="7">
         <v>3.5294117231833898E-5</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="7">
         <v>-1.2836313842713399E-5</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="55">
         <v>3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="66">
         <v>-3.2311605115447099E-5</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="18">
         <v>2.99999999997089</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="10">
         <v>-3.2280933940142998E-5</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="7">
         <v>4.16636576383514E-5</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="7">
         <v>-2.9047209650894501E-6</v>
       </c>
       <c r="I15" s="11"/>
@@ -5546,28 +5644,28 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="55">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="66">
         <v>-3.6185364516640701E-5</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="18">
         <v>2.9999999999854401</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="10">
         <v>-3.6154236441987503E-5</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="7">
         <v>4.3053275953585099E-5</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="7">
         <v>-3.27385780707878E-6</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -5575,28 +5673,28 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="55">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="66">
         <v>-3.1255951357502798E-5</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="18">
         <v>3</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="10">
         <v>-3.1225586653249498E-5</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="7">
         <v>3.5294117231833898E-5</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="7">
         <v>-2.7817432984747901E-6</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -5617,16 +5715,18 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="64" t="s">
         <v>46</v>
       </c>
       <c r="G24" t="s">
@@ -5636,22 +5736,24 @@
         <v>53</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="L24" s="7" t="s">
+      <c r="K24" s="41"/>
+      <c r="L24" s="42" t="s">
         <v>47</v>
       </c>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="65">
         <f>Sheet4!F3</f>
         <v>-6.1924110283939595E-10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="66">
         <f>F3</f>
         <v>-6.1924110283939595E-10</v>
       </c>
@@ -5659,662 +5761,1488 @@
         <f>Sheet2!F3</f>
         <v>-3.5441609647079899E-9</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="16">
         <f>Sheet3!F3</f>
         <v>-9.6483820932746702E-11</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="36">
         <f>C25/D25</f>
         <v>1</v>
       </c>
       <c r="H25" s="18">
-        <f>E25/F25</f>
+        <f t="shared" ref="H25:H39" si="0">E25/F25</f>
         <v>36.733215273246898</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="L25" s="9" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="65">
         <f>Sheet4!F4</f>
         <v>-8.4296181146470396E-10</v>
       </c>
-      <c r="D26" s="11">
-        <f t="shared" ref="D26:D39" si="0">F4</f>
+      <c r="D26" s="66">
+        <f t="shared" ref="D26:D39" si="1">F4</f>
         <v>-8.4296181146470396E-10</v>
       </c>
       <c r="E26" s="10">
         <f>Sheet2!F4</f>
         <v>-4.2986130210920204E-9</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="16">
         <f>Sheet3!F4</f>
         <v>-1.01718633516156E-10</v>
       </c>
-      <c r="G26" s="39">
-        <f t="shared" ref="G26:G39" si="1">C26/D26</f>
+      <c r="G26" s="36">
+        <f t="shared" ref="G26:G39" si="2">C26/D26</f>
         <v>1</v>
       </c>
       <c r="H26" s="18">
-        <f>E26/F26</f>
+        <f t="shared" si="0"/>
         <v>42.259838463217953</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="46">
         <v>0.10215829999999999</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="47">
         <v>0.100096</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="65">
         <f>Sheet4!F5</f>
         <v>-6.8578132061958203E-10</v>
       </c>
-      <c r="D27" s="11">
-        <f t="shared" si="0"/>
+      <c r="D27" s="66">
+        <f t="shared" si="1"/>
         <v>-6.8578132061958203E-10</v>
       </c>
       <c r="E27" s="10">
         <f>Sheet2!F5</f>
         <v>-3.3362553830684698E-9</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="16">
         <f>Sheet3!F5</f>
         <v>-9.52189438407913E-11</v>
       </c>
-      <c r="G27" s="39">
-        <f t="shared" si="1"/>
+      <c r="G27" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H27" s="18">
-        <f>E27/F27</f>
+        <f t="shared" si="0"/>
         <v>35.037727247287904</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="46">
         <v>0.101315</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="47">
         <v>9.8958000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="65">
         <f>Sheet4!F6</f>
         <v>-1.0875790268372E-9</v>
       </c>
-      <c r="D28" s="11">
-        <f t="shared" si="0"/>
+      <c r="D28" s="66">
+        <f t="shared" si="1"/>
         <v>-1.0875790268372E-9</v>
       </c>
       <c r="E28" s="10">
         <f>Sheet2!F6</f>
         <v>-1.08430726619701E-8</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="16">
         <f>Sheet3!F6</f>
         <v>-1.1143386213774401E-10</v>
       </c>
-      <c r="G28" s="39">
-        <f t="shared" si="1"/>
+      <c r="G28" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H28" s="18">
-        <f>E28/F28</f>
+        <f t="shared" si="0"/>
         <v>97.305006341491762</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="48">
         <v>0.10329099999999999</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="49">
         <v>0.101149</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="65">
         <f>Sheet4!F7</f>
         <v>-1.84056658802944E-9</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" si="0"/>
+      <c r="D29" s="66">
+        <f t="shared" si="1"/>
         <v>-1.84056658802944E-9</v>
       </c>
       <c r="E29" s="10">
         <f>Sheet2!F7</f>
         <v>-1.5207273662554101E-8</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="16">
         <f>Sheet3!F7</f>
         <v>-1.1794498711026299E-10</v>
       </c>
-      <c r="G29" s="39">
-        <f t="shared" si="1"/>
+      <c r="G29" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H29" s="18">
-        <f>E29/F29</f>
+        <f t="shared" si="0"/>
         <v>128.93531158163853</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="65">
         <f>Sheet4!F8</f>
         <v>-1.5183204693514E-9</v>
       </c>
-      <c r="D30" s="11">
-        <f t="shared" si="0"/>
+      <c r="D30" s="66">
+        <f t="shared" si="1"/>
         <v>-1.5183204693514E-9</v>
       </c>
       <c r="E30" s="10">
         <f>Sheet2!F8</f>
         <v>-1.0026316332734E-8</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="16">
         <f>Sheet3!F8</f>
         <v>-1.09870224029862E-10</v>
       </c>
-      <c r="G30" s="39">
-        <f t="shared" si="1"/>
+      <c r="G30" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H30" s="18">
-        <f>E30/F30</f>
+        <f t="shared" si="0"/>
         <v>91.255992433481467</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="L30" s="7" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="42" t="s">
         <v>48</v>
       </c>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="43"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="65">
         <f>Sheet4!F9</f>
         <v>-2.46210333757842E-15</v>
       </c>
-      <c r="D31" s="11">
-        <f t="shared" si="0"/>
+      <c r="D31" s="66">
+        <f t="shared" si="1"/>
         <v>-2.46210333757842E-15</v>
       </c>
       <c r="E31" s="10">
         <f>Sheet2!F9</f>
         <v>-3.2642736485631298E-13</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="16">
         <f>Sheet3!F9</f>
         <v>-2.5029301553482099E-65</v>
       </c>
-      <c r="G31" s="39">
-        <f t="shared" si="1"/>
+      <c r="G31" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H31" s="18">
-        <f>E31/F31</f>
+        <f t="shared" si="0"/>
         <v>1.3041808783949073E+52</v>
       </c>
       <c r="I31" s="18">
         <f>H31-H33</f>
         <v>5.2584259513251272E+39</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="M31" s="46"/>
+      <c r="N31" s="45" t="s">
         <v>9</v>
       </c>
+      <c r="O31" s="47"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="65">
         <f>Sheet4!F10</f>
         <v>-6.06103695732221E-14</v>
       </c>
-      <c r="D32" s="11">
-        <f t="shared" si="0"/>
+      <c r="D32" s="66">
+        <f t="shared" si="1"/>
         <v>-6.06103695732221E-14</v>
       </c>
       <c r="E32" s="10">
         <f>Sheet2!F10</f>
         <v>-1.44830094012261E-12</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="16">
         <f>Sheet3!F10</f>
         <v>-2.64273438607206E-64</v>
       </c>
-      <c r="G32" s="39">
-        <f t="shared" si="1"/>
+      <c r="G32" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H32" s="18">
-        <f>E32/F32</f>
+        <f t="shared" si="0"/>
         <v>5.4803121636270219E+51</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="46">
         <v>26000</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="51">
         <f>150000000/(L32*2)</f>
         <v>2884.6153846153848</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="46">
         <v>18600</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="52">
         <f>150000000/(N32*2)</f>
         <v>4032.2580645161293</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="65">
         <f>Sheet4!F11</f>
         <v>-5.61614321497752E-14</v>
       </c>
-      <c r="D33" s="11">
-        <f t="shared" si="0"/>
+      <c r="D33" s="66">
+        <f t="shared" si="1"/>
         <v>-5.61614321497752E-14</v>
       </c>
       <c r="E33" s="10">
         <f>Sheet2!F11</f>
         <v>-4.2930716224039998E-13</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="16">
         <f>Sheet3!F11</f>
         <v>-3.2917762355857701E-65</v>
       </c>
-      <c r="G33" s="39">
-        <f t="shared" si="1"/>
+      <c r="G33" s="36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H33" s="18">
-        <f>E33/F33</f>
+        <f t="shared" si="0"/>
         <v>1.3041808783943814E+52</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="46">
         <v>21500</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="51">
         <f>150000000/(L33*2)</f>
         <v>3488.3720930232557</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="46">
         <v>13200</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="52">
         <f>150000000/(N33*2)</f>
         <v>5681.818181818182</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="65">
         <f>Sheet4!F12</f>
         <v>-5.4753311624722301E-3</v>
       </c>
-      <c r="D34" s="11">
-        <f t="shared" si="0"/>
+      <c r="D34" s="66">
+        <f t="shared" si="1"/>
         <v>-5.36363156953711E-3</v>
       </c>
       <c r="E34" s="10">
         <f>Sheet2!F12</f>
         <v>-8.8757331977546896E-3</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="16">
         <f>Sheet3!F12</f>
         <v>-3.5398096985090801E-3</v>
       </c>
-      <c r="G34" s="39">
-        <f t="shared" si="1"/>
+      <c r="G34" s="36">
+        <f t="shared" si="2"/>
         <v>1.0208253664493887</v>
       </c>
       <c r="H34" s="18">
-        <f>E34/F34</f>
+        <f t="shared" si="0"/>
         <v>2.5074040566341824</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="48">
         <v>22700</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="53">
         <f>150000000/(L34*2)</f>
         <v>3303.964757709251</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="48">
         <v>13600</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="54">
         <f>150000000/(N34*2)</f>
         <v>5514.7058823529414</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="65">
         <f>Sheet4!F13</f>
         <v>-5.7299057996829097E-3</v>
       </c>
-      <c r="D35" s="11">
-        <f t="shared" si="0"/>
+      <c r="D35" s="66">
+        <f t="shared" si="1"/>
         <v>-5.6182059838079104E-3</v>
       </c>
       <c r="E35" s="10">
         <f>Sheet2!F13</f>
         <v>-9.3230362363101397E-3</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="16">
         <f>Sheet3!F13</f>
         <v>-3.5893406794684701E-3</v>
       </c>
-      <c r="G35" s="39">
-        <f t="shared" si="1"/>
+      <c r="G35" s="36">
+        <f t="shared" si="2"/>
         <v>1.0198817587316888</v>
       </c>
       <c r="H35" s="18">
-        <f>E35/F35</f>
+        <f t="shared" si="0"/>
         <v>2.5974230558941391</v>
       </c>
       <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="V35" s="46"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="65">
         <f>Sheet4!F14</f>
         <v>-5.2703562608940003E-3</v>
       </c>
-      <c r="D36" s="11">
-        <f t="shared" si="0"/>
+      <c r="D36" s="66">
+        <f t="shared" si="1"/>
         <v>-5.1586579140803198E-3</v>
       </c>
       <c r="E36" s="10">
         <f>Sheet2!F14</f>
         <v>-8.7186773878329404E-3</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="16">
         <f>Sheet3!F14</f>
         <v>-3.5273062479745901E-3</v>
       </c>
-      <c r="G36" s="39">
-        <f t="shared" si="1"/>
+      <c r="G36" s="36">
+        <f t="shared" si="2"/>
         <v>1.0216525981513147</v>
       </c>
       <c r="H36" s="18">
-        <f>E36/F36</f>
+        <f t="shared" si="0"/>
         <v>2.4717664911685171</v>
       </c>
       <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="N36" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" t="s">
+        <v>59</v>
+      </c>
+      <c r="T36" t="s">
+        <v>60</v>
+      </c>
+      <c r="U36" t="s">
+        <v>61</v>
+      </c>
+      <c r="V36" s="46"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="65">
         <f>Sheet4!F15</f>
         <v>-3.2287241989337102E-5</v>
       </c>
-      <c r="D37" s="11">
-        <f t="shared" si="0"/>
+      <c r="D37" s="66">
+        <f t="shared" si="1"/>
         <v>-3.2280933940142998E-5</v>
       </c>
       <c r="E37" s="10">
         <f>Sheet2!F15</f>
         <v>-8.38724432838944E-5</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="16">
         <f>Sheet3!F15</f>
         <v>-1.38607778552568E-5</v>
       </c>
-      <c r="G37" s="39">
-        <f t="shared" si="1"/>
+      <c r="G37" s="36">
+        <f t="shared" si="2"/>
         <v>1.0001954109879783</v>
       </c>
       <c r="H37" s="18">
-        <f>E37/F37</f>
+        <f t="shared" si="0"/>
         <v>6.0510632346715783</v>
       </c>
       <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="K37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="O37" s="11">
+        <v>-6.1924110283939595E-10</v>
+      </c>
+      <c r="P37">
+        <v>0.99998383919752198</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>3.33333331858876E-9</v>
+      </c>
+      <c r="R37" s="11">
+        <v>-6.1932298988551197E-10</v>
+      </c>
+      <c r="S37" s="11">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="T37" s="11">
+        <v>-6.1925110798659998E-10</v>
+      </c>
+      <c r="U37" s="11">
+        <v>-6.1933299635577402E-10</v>
+      </c>
+      <c r="V37" s="76"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="65">
         <f>Sheet4!F16</f>
         <v>-3.61605445213797E-5</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" si="0"/>
+      <c r="D38" s="66">
+        <f t="shared" si="1"/>
         <v>-3.6154236441987503E-5</v>
       </c>
       <c r="E38" s="10">
         <f>Sheet2!F16</f>
         <v>-9.2497661977830603E-5</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="16">
         <f>Sheet3!F16</f>
         <v>-1.42338449062862E-5</v>
       </c>
-      <c r="G38" s="39">
-        <f t="shared" si="1"/>
+      <c r="G38" s="36">
+        <f t="shared" si="2"/>
         <v>1.0001744769081853</v>
       </c>
       <c r="H38" s="18">
-        <f>E38/F38</f>
+        <f t="shared" si="0"/>
         <v>6.4984312100365917</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="O38" s="11">
+        <v>-1.0875790268372E-9</v>
+      </c>
+      <c r="P38">
+        <v>0.99997976987168302</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>3.3333333185881098E-9</v>
+      </c>
+      <c r="R38" s="11">
+        <v>-1.08772483237645E-9</v>
+      </c>
+      <c r="S38" s="11">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="T38" s="11">
+        <v>-1.0876010243372899E-9</v>
+      </c>
+      <c r="U38" s="11">
+        <v>-1.0877468328256201E-9</v>
+      </c>
+      <c r="V38" s="76"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="67">
         <f>Sheet4!F17</f>
         <v>-3.1231894540795197E-5</v>
       </c>
-      <c r="D39" s="11">
-        <f t="shared" si="0"/>
+      <c r="D39" s="68">
+        <f t="shared" si="1"/>
         <v>-3.1225586653249498E-5</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="69">
         <f>Sheet2!F17</f>
         <v>-8.1082068133397897E-5</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="17">
         <f>Sheet3!F17</f>
         <v>-1.37679637575161E-5</v>
       </c>
-      <c r="G39" s="39">
-        <f t="shared" si="1"/>
+      <c r="G39" s="36">
+        <f t="shared" si="2"/>
         <v>1.0002020102173179</v>
       </c>
       <c r="H39" s="18">
-        <f>E39/F39</f>
+        <f t="shared" si="0"/>
         <v>5.8891837283588293</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="O39" s="11">
+        <v>-2.4424906541753401E-15</v>
+      </c>
+      <c r="P39">
+        <v>0.99999999666543404</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>3.3333333333333301E-9</v>
+      </c>
+      <c r="R39" s="11">
+        <v>-2.4645703651258601E-15</v>
+      </c>
+      <c r="S39" s="11">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="T39" s="11">
+        <v>-2.4424906541783401E-15</v>
+      </c>
+      <c r="U39" s="11">
+        <v>-2.4645703651288999E-15</v>
+      </c>
+      <c r="V39" s="76"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="O40">
+        <v>-1.5488767712668001E-4</v>
+      </c>
+      <c r="P40">
+        <v>10007.197359129599</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>7.83258156091887E-5</v>
+      </c>
+      <c r="R40">
+        <v>-1.6779635400943801E-4</v>
+      </c>
+      <c r="S40" s="11">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="T40" s="11">
+        <v>-1.5477627547315601E-8</v>
+      </c>
+      <c r="U40" s="11">
+        <v>-1.6767566789909799E-8</v>
+      </c>
+      <c r="V40" s="40"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H41">
         <f>MIN(H25:H38)</f>
         <v>2.4717664911685171</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41">
+        <v>-1.2466666666878099</v>
+      </c>
+      <c r="O41" s="11">
+        <v>-3.2287241989337102E-5</v>
+      </c>
+      <c r="P41">
+        <v>11.113232684457101</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>6.4121213660378796E-8</v>
+      </c>
+      <c r="R41" s="11">
+        <v>-3.2311606017060498E-5</v>
+      </c>
+      <c r="S41" s="11">
+        <v>-1.7313564396843201E-5</v>
+      </c>
+      <c r="T41" s="11">
+        <v>-2.9052885794830402E-6</v>
+      </c>
+      <c r="U41" s="11">
+        <v>-2.9074809169864498E-6</v>
+      </c>
+      <c r="V41" s="40"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H42">
         <f>MAX(H25:H38)</f>
         <v>1.3041808783949073E+52</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
+      <c r="K42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>2.99999999997089</v>
+      </c>
+      <c r="O42" s="11">
+        <v>-6.1924110283939595E-10</v>
+      </c>
+      <c r="P42">
+        <v>0.99998383919752198</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>3.3333333311112099E-9</v>
+      </c>
+      <c r="R42" s="11">
+        <v>-6.1932300240337297E-10</v>
+      </c>
+      <c r="S42" s="11">
+        <v>4.16636576383514E-5</v>
+      </c>
+      <c r="T42" s="11">
+        <v>-6.1925110798659998E-10</v>
+      </c>
+      <c r="U42" s="11">
+        <v>-6.1933300887383696E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>2.99999999997089</v>
+      </c>
+      <c r="O43" s="11">
+        <v>-1.0875790268372E-9</v>
+      </c>
+      <c r="P43">
+        <v>0.99997976987168302</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>3.3333333311112E-9</v>
+      </c>
+      <c r="R43" s="11">
+        <v>-1.08772484489558E-9</v>
+      </c>
+      <c r="S43" s="11">
+        <v>4.16636576383514E-5</v>
+      </c>
+      <c r="T43" s="11">
+        <v>-1.0876010243372899E-9</v>
+      </c>
+      <c r="U43" s="11">
+        <v>-1.08774684534501E-9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="50" t="str">
+        <f>P36</f>
+        <v>Eulotterylose</v>
+      </c>
+      <c r="D44" s="50" t="str">
+        <f>Q36</f>
+        <v>Eulotterywin</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>2.99999999997089</v>
+      </c>
+      <c r="O44" s="11">
+        <v>-2.4424906541753401E-15</v>
+      </c>
+      <c r="P44">
+        <v>0.99999999666543404</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>3.3333333333333301E-9</v>
+      </c>
+      <c r="R44" s="11">
+        <v>-2.4645703651258601E-15</v>
+      </c>
+      <c r="S44" s="11">
+        <v>4.16636576383514E-5</v>
+      </c>
+      <c r="T44" s="11">
+        <v>-2.4424906541783401E-15</v>
+      </c>
+      <c r="U44" s="11">
+        <v>-2.4645703651288999E-15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="str">
+        <f>K37</f>
+        <v>226 million</v>
+      </c>
+      <c r="B45" s="46" t="str">
+        <f>M37</f>
+        <v>CRRA</v>
+      </c>
+      <c r="C45" s="55">
+        <f>P37</f>
+        <v>0.99998383919752198</v>
+      </c>
+      <c r="D45" s="56">
+        <f>Q37</f>
+        <v>3.33333331858876E-9</v>
+      </c>
+      <c r="E45" s="57">
+        <f>D45/C45</f>
+        <v>3.3333871888007009E-9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45">
+        <v>2.99999999997089</v>
+      </c>
+      <c r="O45" s="11">
+        <v>-4.7617037125746699E-5</v>
+      </c>
+      <c r="P45">
+        <v>10007.197359129599</v>
+      </c>
+      <c r="Q45">
+        <v>1.85596456089907E-4</v>
+      </c>
+      <c r="R45">
+        <v>-1.1005560321605199E-4</v>
+      </c>
+      <c r="S45" s="11">
+        <v>4.16636576383514E-5</v>
+      </c>
+      <c r="T45" s="11">
+        <v>-4.7582788973988304E-9</v>
+      </c>
+      <c r="U45" s="11">
+        <v>-1.09976446653017E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="str">
+        <f t="shared" ref="A46:A61" si="3">K38</f>
+        <v>226 million</v>
+      </c>
+      <c r="B46" s="46" t="str">
+        <f t="shared" ref="B46:B61" si="4">M38</f>
+        <v>S-G</v>
+      </c>
+      <c r="C46" s="55">
+        <f t="shared" ref="C46:D46" si="5">P38</f>
+        <v>0.99997976987168302</v>
+      </c>
+      <c r="D46" s="56">
+        <f t="shared" si="5"/>
+        <v>3.3333333185881098E-9</v>
+      </c>
+      <c r="E46" s="57">
+        <f t="shared" ref="E46:E61" si="6">D46/C46</f>
+        <v>3.3334007537130892E-9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="N46">
+        <v>2.99999999997089</v>
+      </c>
+      <c r="O46" s="11">
+        <v>-3.2280933940142998E-5</v>
+      </c>
+      <c r="P46">
+        <v>11.113232684457101</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>7.0429263152952196E-8</v>
+      </c>
+      <c r="R46" s="11">
+        <v>-3.2311605115447099E-5</v>
+      </c>
+      <c r="S46" s="11">
+        <v>4.16636576383514E-5</v>
+      </c>
+      <c r="T46" s="11">
+        <v>-2.9047209650894501E-6</v>
+      </c>
+      <c r="U46" s="11">
+        <v>-2.9074808358569701E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>226 million</v>
+      </c>
+      <c r="B47" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>exponential</v>
+      </c>
+      <c r="C47" s="55">
+        <f t="shared" ref="C47:D47" si="7">P39</f>
+        <v>0.99999999666543404</v>
+      </c>
+      <c r="D47" s="56">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333301E-9</v>
+      </c>
+      <c r="E47" s="57">
+        <f t="shared" si="6"/>
+        <v>3.3333333444485501E-9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>77331.333333333299</v>
+      </c>
+      <c r="O47" s="11">
+        <v>-6.1924099181709297E-10</v>
+      </c>
+      <c r="P47">
+        <v>0.99998383919752198</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>3.3333333333331899E-9</v>
+      </c>
+      <c r="R47" s="11">
+        <v>-6.19323004625238E-10</v>
+      </c>
+      <c r="S47" s="11">
+        <v>1.07396873224949</v>
+      </c>
+      <c r="T47" s="11">
+        <v>-6.1925099696250399E-10</v>
+      </c>
+      <c r="U47" s="11">
+        <v>-6.1933301109573797E-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>226 million</v>
+      </c>
+      <c r="B48" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>HARA</v>
+      </c>
+      <c r="C48" s="55">
+        <f t="shared" ref="C48:D48" si="8">P40</f>
+        <v>10007.197359129599</v>
+      </c>
+      <c r="D48" s="56">
+        <f t="shared" si="8"/>
+        <v>7.83258156091887E-5</v>
+      </c>
+      <c r="E48" s="57">
+        <f t="shared" si="6"/>
+        <v>7.8269482251923211E-9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <v>77331.333333333299</v>
+      </c>
+      <c r="O48" s="11">
+        <v>-1.0875789158149E-9</v>
+      </c>
+      <c r="P48">
+        <v>0.99997976987168302</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>3.3333333333331899E-9</v>
+      </c>
+      <c r="R48" s="11">
+        <v>-1.08772484711748E-9</v>
+      </c>
+      <c r="S48" s="11">
+        <v>1.07396873224949</v>
+      </c>
+      <c r="T48" s="11">
+        <v>-1.08760091331274E-9</v>
+      </c>
+      <c r="U48" s="11">
+        <v>-1.0877468475669501E-9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>226 million</v>
+      </c>
+      <c r="B49" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>log</v>
+      </c>
+      <c r="C49" s="55">
+        <f t="shared" ref="C49:D49" si="9">P41</f>
+        <v>11.113232684457101</v>
+      </c>
+      <c r="D49" s="56">
+        <f t="shared" si="9"/>
+        <v>6.4121213660378796E-8</v>
+      </c>
+      <c r="E49" s="57">
+        <f t="shared" si="6"/>
+        <v>5.7698075331454485E-9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>77331.333333333299</v>
+      </c>
+      <c r="O49" s="11">
+        <v>-2.4424906541753401E-15</v>
+      </c>
+      <c r="P49">
+        <v>0.99999999666543404</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>3.3333333333333301E-9</v>
+      </c>
+      <c r="R49" s="11">
+        <v>-2.4645703651258601E-15</v>
+      </c>
+      <c r="S49" s="11">
+        <v>1.07396873224949</v>
+      </c>
+      <c r="T49" s="11">
+        <v>-2.4424906541783401E-15</v>
+      </c>
+      <c r="U49" s="11">
+        <v>-2.4645703651288999E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5 billion</v>
+      </c>
+      <c r="B50" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>CRRA</v>
+      </c>
+      <c r="C50" s="55">
+        <f t="shared" ref="C50:D50" si="10">P42</f>
+        <v>0.99998383919752198</v>
+      </c>
+      <c r="D50" s="56">
+        <f t="shared" si="10"/>
+        <v>3.3333333311112099E-9</v>
+      </c>
+      <c r="E50" s="57">
+        <f t="shared" si="6"/>
+        <v>3.3333872013233531E-9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50">
+        <v>77331.333333333299</v>
+      </c>
+      <c r="O50" s="11">
+        <v>2.24726594969979E-2</v>
+      </c>
+      <c r="P50">
+        <v>10007.197359129599</v>
+      </c>
+      <c r="Q50">
+        <v>2.2705872990632502E-2</v>
+      </c>
+      <c r="R50">
+        <v>1.11530558241189E-2</v>
+      </c>
+      <c r="S50" s="11">
+        <v>1.07396873224949</v>
+      </c>
+      <c r="T50" s="11">
+        <v>2.24564962264686E-6</v>
+      </c>
+      <c r="U50" s="11">
+        <v>1.1145034082920999E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5 billion</v>
+      </c>
+      <c r="B51" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>S-G</v>
+      </c>
+      <c r="C51" s="55">
+        <f t="shared" ref="C51:D51" si="11">P43</f>
+        <v>0.99997976987168302</v>
+      </c>
+      <c r="D51" s="56">
+        <f t="shared" si="11"/>
+        <v>3.3333333311112E-9</v>
+      </c>
+      <c r="E51" s="57">
+        <f t="shared" si="6"/>
+        <v>3.3334007662364329E-9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51">
+        <v>77331.333333333299</v>
+      </c>
+      <c r="O51" s="11">
+        <v>-3.2248779291421602E-5</v>
+      </c>
+      <c r="P51">
+        <v>11.113232684457101</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>1.02583911325681E-7</v>
+      </c>
+      <c r="R51" s="11">
+        <v>-3.2311604955459001E-5</v>
+      </c>
+      <c r="S51" s="11">
+        <v>1.07396873224949</v>
+      </c>
+      <c r="T51" s="11">
+        <v>-2.9018276075912E-6</v>
+      </c>
+      <c r="U51" s="11">
+        <v>-2.90748082146084E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5 billion</v>
+      </c>
+      <c r="B52" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>exponential</v>
+      </c>
+      <c r="C52" s="55">
+        <f t="shared" ref="C52:D52" si="12">P44</f>
+        <v>0.99999999666543404</v>
+      </c>
+      <c r="D52" s="56">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333301E-9</v>
+      </c>
+      <c r="E52" s="57">
+        <f t="shared" si="6"/>
+        <v>3.3333333444485501E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5 billion</v>
+      </c>
+      <c r="B53" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>HARA</v>
+      </c>
+      <c r="C53" s="55">
+        <f t="shared" ref="C53:D53" si="13">P45</f>
+        <v>10007.197359129599</v>
+      </c>
+      <c r="D53" s="56">
+        <f t="shared" si="13"/>
+        <v>1.85596456089907E-4</v>
+      </c>
+      <c r="E53" s="57">
+        <f t="shared" si="6"/>
+        <v>1.8546297172862965E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5 billion</v>
+      </c>
+      <c r="B54" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>log</v>
+      </c>
+      <c r="C54" s="55">
+        <f t="shared" ref="C54:D54" si="14">P46</f>
+        <v>11.113232684457101</v>
+      </c>
+      <c r="D54" s="56">
+        <f t="shared" si="14"/>
+        <v>7.0429263152952196E-8</v>
+      </c>
+      <c r="E54" s="57">
+        <f t="shared" si="6"/>
+        <v>6.3374236059552803E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>23.3 trillion</v>
+      </c>
+      <c r="B55" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>CRRA</v>
+      </c>
+      <c r="C55" s="55">
+        <f t="shared" ref="C55:D55" si="15">P47</f>
+        <v>0.99998383919752198</v>
+      </c>
+      <c r="D55" s="56">
+        <f t="shared" si="15"/>
+        <v>3.3333333333331899E-9</v>
+      </c>
+      <c r="E55" s="57">
+        <f t="shared" si="6"/>
+        <v>3.333387203545369E-9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>23.3 trillion</v>
+      </c>
+      <c r="B56" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>S-G</v>
+      </c>
+      <c r="C56" s="55">
+        <f t="shared" ref="C56:D56" si="16">P48</f>
+        <v>0.99997976987168302</v>
+      </c>
+      <c r="D56" s="56">
+        <f t="shared" si="16"/>
+        <v>3.3333333333331899E-9</v>
+      </c>
+      <c r="E56" s="57">
+        <f t="shared" si="6"/>
+        <v>3.3334007684584679E-9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>23.3 trillion</v>
+      </c>
+      <c r="B57" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>exponential</v>
+      </c>
+      <c r="C57" s="55">
+        <f t="shared" ref="C57:D57" si="17">P49</f>
+        <v>0.99999999666543404</v>
+      </c>
+      <c r="D57" s="56">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333301E-9</v>
+      </c>
+      <c r="E57" s="57">
+        <f t="shared" si="6"/>
+        <v>3.3333333444485501E-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>23.3 trillion</v>
+      </c>
+      <c r="B58" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>HARA</v>
+      </c>
+      <c r="C58" s="55">
+        <f t="shared" ref="C58:D58" si="18">P50</f>
+        <v>10007.197359129599</v>
+      </c>
+      <c r="D58" s="56">
+        <f t="shared" si="18"/>
+        <v>2.2705872990632502E-2</v>
+      </c>
+      <c r="E58" s="57">
+        <f t="shared" si="6"/>
+        <v>2.2689542512037957E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>23.3 trillion</v>
+      </c>
+      <c r="B59" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>log</v>
+      </c>
+      <c r="C59" s="59">
+        <f t="shared" ref="C59:D59" si="19">P51</f>
+        <v>11.113232684457101</v>
+      </c>
+      <c r="D59" s="60">
+        <f t="shared" si="19"/>
+        <v>1.02583911325681E-7</v>
+      </c>
+      <c r="E59" s="61">
+        <f t="shared" si="6"/>
+        <v>9.2307894775886621E-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="77"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6350,18 +7278,18 @@
       <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7075,7 +8003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8A15A5-DF59-4294-9A43-F1968F75678E}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -7093,18 +8021,18 @@
       <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7862,18 +8790,18 @@
       <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
